--- a/SuppXLS/Scen_PP_STOCK_BEZP.xlsx
+++ b/SuppXLS/Scen_PP_STOCK_BEZP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\TIMES_Kraszewski\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F789C5A-D99C-4375-A699-F35A290C619E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFD6CA8-DA91-40CA-8244-5C8B5C9E06CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="124">
   <si>
     <t>LimType</t>
   </si>
@@ -334,6 +334,81 @@
   </si>
   <si>
     <t>Ścieżka odstawień mocy istniejących elektrowni</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>2026 - 2027</t>
+  </si>
+  <si>
+    <t>po 0,46</t>
+  </si>
+  <si>
+    <t>(tylko Jaworzno III)</t>
+  </si>
+  <si>
+    <t>(Jaworzno II i Jaworzno Nowe)</t>
+  </si>
+  <si>
+    <t>Bełchatów (bez B14)</t>
+  </si>
+  <si>
+    <t>2030-2036</t>
+  </si>
+  <si>
+    <t>Bełchatów B14</t>
+  </si>
+  <si>
+    <t>nie działa</t>
+  </si>
+  <si>
+    <t>Pątnów 2</t>
+  </si>
+  <si>
+    <t>Polaniec</t>
+  </si>
+  <si>
+    <t>Turów 1</t>
+  </si>
+  <si>
+    <t>Turów 2 (B7)</t>
+  </si>
+  <si>
+    <t>Pątnów 1</t>
+  </si>
+  <si>
+    <t>Kozienice (do 2028)</t>
+  </si>
+  <si>
+    <t>Kozienice 2 (do 2034)</t>
+  </si>
+  <si>
+    <t>Kozienice 3 (do 2048)</t>
+  </si>
+  <si>
+    <t>Opole 1</t>
+  </si>
+  <si>
+    <t>Opole 2</t>
+  </si>
+  <si>
+    <t>Rybnik</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>Dolna Odra</t>
+  </si>
+  <si>
+    <t>Łaziska</t>
+  </si>
+  <si>
+    <t>Łagisza</t>
+  </si>
+  <si>
+    <t>Ostrołęka B</t>
   </si>
 </sst>
 </file>
@@ -3312,7 +3387,7 @@
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="101" fillId="41" borderId="18" xfId="800" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3442,6 +3517,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="111" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="101" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="104" fillId="44" borderId="0" xfId="1263" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3469,8 +3546,7 @@
     <xf numFmtId="0" fontId="104" fillId="44" borderId="31" xfId="1263" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1267">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4263,7 +4339,6 @@
     <cellStyle name="Neutralne 9 3" xfId="787" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
     <cellStyle name="Neutralne_D_HEAT" xfId="788" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
     <cellStyle name="no dec" xfId="789" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="790" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
     <cellStyle name="Normal 10" xfId="791" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
     <cellStyle name="Normal 10 15 2" xfId="1262" xr:uid="{3454639D-9066-46DE-893B-84FBA677F264}"/>
@@ -4289,6 +4364,7 @@
     <cellStyle name="Normal GHG-Shade" xfId="809" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
     <cellStyle name="Normal GHG-Shade 2" xfId="810" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
     <cellStyle name="Normale_B2020" xfId="811" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="812" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
     <cellStyle name="Normalny 10 10" xfId="1266" xr:uid="{E6772DB1-AA3F-42EC-A3DC-A75A3561A772}"/>
     <cellStyle name="Normalny 10 2" xfId="813" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
@@ -4973,7 +5049,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5011,7 +5087,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -5083,7 +5159,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5263,12 +5339,12 @@
       <selection activeCell="F18" sqref="F18:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="18.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="3" width="4" style="15" customWidth="1"/>
-    <col min="4" max="9" width="14.1796875" style="15" customWidth="1"/>
+    <col min="4" max="9" width="14.21875" style="15" customWidth="1"/>
     <col min="10" max="12" width="4" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="9.08984375" style="15"/>
+    <col min="13" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1">
@@ -5333,9 +5409,9 @@
       <c r="A6" s="14"/>
       <c r="B6" s="19"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="J6" s="25"/>
       <c r="K6" s="23"/>
       <c r="L6" s="14"/>
@@ -5356,9 +5432,9 @@
       <c r="A8" s="14"/>
       <c r="B8" s="19"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="J8" s="25"/>
       <c r="K8" s="23"/>
       <c r="L8" s="14"/>
@@ -5407,15 +5483,15 @@
       <c r="A14" s="14"/>
       <c r="B14" s="19"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="68" t="s">
+      <c r="E14" s="67"/>
+      <c r="F14" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
       <c r="J14" s="25"/>
       <c r="K14" s="23"/>
       <c r="L14" s="14"/>
@@ -5426,9 +5502,9 @@
       <c r="C15" s="24"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
       <c r="J15" s="25"/>
       <c r="K15" s="23"/>
       <c r="L15" s="14"/>
@@ -5453,16 +5529,16 @@
       <c r="A18" s="14"/>
       <c r="B18" s="19"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="69" t="s">
+      <c r="E18" s="67"/>
+      <c r="F18" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
       <c r="J18" s="25"/>
       <c r="K18" s="23"/>
       <c r="L18" s="14"/>
@@ -5473,10 +5549,10 @@
       <c r="C19" s="24"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
       <c r="J19" s="25"/>
       <c r="K19" s="23"/>
       <c r="L19" s="14"/>
@@ -5487,10 +5563,10 @@
       <c r="C20" s="24"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
       <c r="J20" s="25"/>
       <c r="K20" s="23"/>
       <c r="L20" s="14"/>
@@ -5510,10 +5586,10 @@
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="65"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="31">
         <v>45078</v>
       </c>
@@ -5591,10 +5667,10 @@
       <c r="A28" s="14"/>
       <c r="B28" s="19"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="65"/>
+      <c r="E28" s="67"/>
       <c r="F28" s="15" t="s">
         <v>88</v>
       </c>
@@ -5633,10 +5709,10 @@
       <c r="A32" s="14"/>
       <c r="B32" s="19"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="65"/>
+      <c r="E32" s="67"/>
       <c r="F32" s="15" t="s">
         <v>88</v>
       </c>
@@ -5730,7 +5806,7 @@
       <c r="L40" s="14"/>
     </row>
     <row r="48" spans="1:12" ht="59.4" customHeight="1"/>
-    <row r="49" ht="64.25" customHeight="1"/>
+    <row r="49" ht="64.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="D22:E22"/>
@@ -5760,14 +5836,14 @@
       <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="3" width="4" style="39" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="24.36328125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="44.36328125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" style="39" customWidth="1"/>
     <col min="7" max="9" width="4" style="39" customWidth="1"/>
-    <col min="10" max="16384" width="9.08984375" style="39"/>
+    <col min="10" max="16384" width="9.109375" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1">
@@ -5792,7 +5868,7 @@
       <c r="H2" s="18"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="18.5">
+    <row r="3" spans="1:9" ht="18">
       <c r="A3" s="14"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
@@ -5803,20 +5879,20 @@
       <c r="H3" s="23"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="18.5">
+    <row r="4" spans="1:9" ht="18">
       <c r="A4" s="14"/>
       <c r="B4" s="19"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="25"/>
       <c r="H4" s="23"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="18.5">
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" s="14"/>
       <c r="B5" s="19"/>
       <c r="C5" s="24"/>
@@ -5827,20 +5903,20 @@
       <c r="H5" s="23"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="18.5">
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" s="14"/>
       <c r="B6" s="19"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="75"/>
       <c r="G6" s="25"/>
       <c r="H6" s="23"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" ht="18.5">
+    <row r="7" spans="1:9" ht="18">
       <c r="A7" s="14"/>
       <c r="B7" s="19"/>
       <c r="C7" s="24"/>
@@ -5851,7 +5927,7 @@
       <c r="H7" s="23"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" ht="18.5">
+    <row r="8" spans="1:9" ht="18">
       <c r="A8" s="14"/>
       <c r="B8" s="19"/>
       <c r="C8" s="24"/>
@@ -5866,7 +5942,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:9" ht="18.5">
+    <row r="9" spans="1:9" ht="18">
       <c r="A9" s="14"/>
       <c r="B9" s="19"/>
       <c r="C9" s="24"/>
@@ -5877,7 +5953,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" spans="1:9" ht="18.5">
+    <row r="10" spans="1:9" ht="18">
       <c r="A10" s="14"/>
       <c r="B10" s="19"/>
       <c r="C10" s="24"/>
@@ -5888,7 +5964,7 @@
       <c r="H10" s="23"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" ht="18.5">
+    <row r="11" spans="1:9" ht="18">
       <c r="A11" s="14"/>
       <c r="B11" s="19"/>
       <c r="C11" s="24"/>
@@ -5899,7 +5975,7 @@
       <c r="H11" s="23"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" ht="18.5">
+    <row r="12" spans="1:9" ht="18">
       <c r="A12" s="14"/>
       <c r="B12" s="19"/>
       <c r="C12" s="24"/>
@@ -5910,7 +5986,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" ht="18.5">
+    <row r="13" spans="1:9" ht="18">
       <c r="A13" s="14"/>
       <c r="B13" s="19"/>
       <c r="C13" s="24"/>
@@ -5921,7 +5997,7 @@
       <c r="H13" s="23"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" ht="18.5">
+    <row r="14" spans="1:9" ht="18">
       <c r="A14" s="14"/>
       <c r="B14" s="19"/>
       <c r="C14" s="24"/>
@@ -5932,7 +6008,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:9" ht="18.5">
+    <row r="15" spans="1:9" ht="18">
       <c r="A15" s="14"/>
       <c r="B15" s="19"/>
       <c r="C15" s="24"/>
@@ -5943,7 +6019,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:9" ht="18.5">
+    <row r="16" spans="1:9" ht="18">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
       <c r="C16" s="24"/>
@@ -5954,7 +6030,7 @@
       <c r="H16" s="23"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="18.5">
+    <row r="17" spans="1:9" ht="18">
       <c r="A17" s="14"/>
       <c r="B17" s="19"/>
       <c r="C17" s="24"/>
@@ -5965,7 +6041,7 @@
       <c r="H17" s="23"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="18.5">
+    <row r="18" spans="1:9" ht="18">
       <c r="A18" s="14"/>
       <c r="B18" s="19"/>
       <c r="C18" s="24"/>
@@ -5976,7 +6052,7 @@
       <c r="H18" s="23"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="18.5">
+    <row r="19" spans="1:9" ht="18">
       <c r="A19" s="14"/>
       <c r="B19" s="19"/>
       <c r="C19" s="24"/>
@@ -5987,7 +6063,7 @@
       <c r="H19" s="23"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="18.5">
+    <row r="20" spans="1:9" ht="18">
       <c r="A20" s="14"/>
       <c r="B20" s="19"/>
       <c r="C20" s="24"/>
@@ -5998,7 +6074,7 @@
       <c r="H20" s="23"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:9" ht="18.5">
+    <row r="21" spans="1:9" ht="18">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="24"/>
@@ -6009,7 +6085,7 @@
       <c r="H21" s="23"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" ht="18.5">
+    <row r="22" spans="1:9" ht="18">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="24"/>
@@ -6020,7 +6096,7 @@
       <c r="H22" s="23"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" spans="1:9" ht="18.5">
+    <row r="23" spans="1:9" ht="18">
       <c r="A23" s="14"/>
       <c r="B23" s="19"/>
       <c r="C23" s="24"/>
@@ -6031,7 +6107,7 @@
       <c r="H23" s="23"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" spans="1:9" ht="18.5">
+    <row r="24" spans="1:9" ht="18">
       <c r="A24" s="14"/>
       <c r="B24" s="19"/>
       <c r="C24" s="24"/>
@@ -6042,7 +6118,7 @@
       <c r="H24" s="23"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" spans="1:9" ht="18.5">
+    <row r="25" spans="1:9" ht="18">
       <c r="A25" s="14"/>
       <c r="B25" s="19"/>
       <c r="C25" s="24"/>
@@ -6053,7 +6129,7 @@
       <c r="H25" s="23"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:9" ht="18.5">
+    <row r="26" spans="1:9" ht="18">
       <c r="A26" s="14"/>
       <c r="B26" s="19"/>
       <c r="C26" s="24"/>
@@ -6064,7 +6140,7 @@
       <c r="H26" s="23"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" ht="18.5">
+    <row r="27" spans="1:9" ht="18">
       <c r="A27" s="14"/>
       <c r="B27" s="19"/>
       <c r="C27" s="24"/>
@@ -6075,7 +6151,7 @@
       <c r="H27" s="23"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" spans="1:9" ht="18.5">
+    <row r="28" spans="1:9" ht="18">
       <c r="A28" s="14"/>
       <c r="B28" s="19"/>
       <c r="C28" s="24"/>
@@ -6086,7 +6162,7 @@
       <c r="H28" s="23"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="18.5">
+    <row r="29" spans="1:9" ht="18">
       <c r="A29" s="14"/>
       <c r="B29" s="19"/>
       <c r="C29" s="24"/>
@@ -6097,7 +6173,7 @@
       <c r="H29" s="23"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" spans="1:9" ht="18.5">
+    <row r="30" spans="1:9" ht="18">
       <c r="A30" s="14"/>
       <c r="B30" s="19"/>
       <c r="C30" s="24"/>
@@ -6108,7 +6184,7 @@
       <c r="H30" s="23"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" spans="1:9" ht="18.5">
+    <row r="31" spans="1:9" ht="18">
       <c r="A31" s="14"/>
       <c r="B31" s="19"/>
       <c r="C31" s="24"/>
@@ -6119,7 +6195,7 @@
       <c r="H31" s="23"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="1:9" ht="18.5">
+    <row r="32" spans="1:9" ht="18">
       <c r="A32" s="14"/>
       <c r="B32" s="19"/>
       <c r="C32" s="24"/>
@@ -6130,7 +6206,7 @@
       <c r="H32" s="23"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" spans="1:9" ht="18.5">
+    <row r="33" spans="1:9" ht="18">
       <c r="A33" s="14"/>
       <c r="B33" s="19"/>
       <c r="C33" s="24"/>
@@ -6141,7 +6217,7 @@
       <c r="H33" s="23"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="1:9" ht="18.5">
+    <row r="34" spans="1:9" ht="18">
       <c r="A34" s="14"/>
       <c r="B34" s="19"/>
       <c r="C34" s="24"/>
@@ -6152,7 +6228,7 @@
       <c r="H34" s="23"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="1:9" ht="18.5">
+    <row r="35" spans="1:9" ht="18">
       <c r="A35" s="14"/>
       <c r="B35" s="19"/>
       <c r="C35" s="24"/>
@@ -6163,7 +6239,7 @@
       <c r="H35" s="23"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:9" ht="18.5">
+    <row r="36" spans="1:9" ht="18">
       <c r="A36" s="14"/>
       <c r="B36" s="19"/>
       <c r="C36" s="24"/>
@@ -6174,7 +6250,7 @@
       <c r="H36" s="23"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="1:9" ht="18.5">
+    <row r="37" spans="1:9" ht="18">
       <c r="A37" s="14"/>
       <c r="B37" s="19"/>
       <c r="C37" s="24"/>
@@ -6185,7 +6261,7 @@
       <c r="H37" s="23"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="1:9" ht="18.5">
+    <row r="38" spans="1:9" ht="18">
       <c r="A38" s="14"/>
       <c r="B38" s="19"/>
       <c r="C38" s="33"/>
@@ -6231,25 +6307,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB21E4C-71AD-44AD-8298-761DB002D879}">
   <dimension ref="B2:N223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B151" workbookViewId="0">
+      <selection activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="20" style="12" customWidth="1"/>
-    <col min="4" max="4" width="27.6328125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="23.6328125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="3.453125" customWidth="1"/>
-    <col min="8" max="12" width="15.90625" customWidth="1"/>
-    <col min="13" max="13" width="15.6328125" customWidth="1"/>
-    <col min="14" max="14" width="37.6328125" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" customWidth="1"/>
+    <col min="8" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18">
+    <row r="2" spans="2:14" ht="17.399999999999999">
       <c r="B2" s="64" t="s">
         <v>98</v>
       </c>
@@ -6267,7 +6343,7 @@
       <c r="E4" s="49"/>
       <c r="F4" s="49"/>
     </row>
-    <row r="5" spans="2:14" ht="13">
+    <row r="5" spans="2:14">
       <c r="B5" s="51" t="s">
         <v>0</v>
       </c>
@@ -6284,7 +6360,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="13" thickBot="1">
+    <row r="6" spans="2:14" ht="13.8" thickBot="1">
       <c r="B6" s="52" t="s">
         <v>4</v>
       </c>
@@ -6328,27 +6404,27 @@
         <v>3.9220000000000002</v>
       </c>
       <c r="I7">
-        <f>SUMIF($E$7:$E$222,I$6,$F$7:$F$222)</f>
+        <f t="shared" ref="I7:N7" si="0">SUMIF($E$7:$E$222,I$6,$F$7:$F$222)</f>
         <v>21.810559999999995</v>
       </c>
       <c r="J7">
-        <f>SUMIF($E$7:$E$222,J$6,$F$7:$F$222)</f>
+        <f t="shared" si="0"/>
         <v>17.043559999999992</v>
       </c>
       <c r="K7">
-        <f>SUMIF($E$7:$E$222,K$6,$F$7:$F$222)</f>
+        <f t="shared" si="0"/>
         <v>10.9588</v>
       </c>
       <c r="L7">
-        <f>SUMIF($E$7:$E$222,L$6,$F$7:$F$222)</f>
+        <f t="shared" si="0"/>
         <v>6.7839999999999989</v>
       </c>
       <c r="M7">
-        <f>SUMIF($E$7:$E$222,M$6,$F$7:$F$222)</f>
+        <f t="shared" si="0"/>
         <v>4.431</v>
       </c>
       <c r="N7">
-        <f>SUMIF($E$7:$E$222,N$6,$F$7:$F$222)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6366,10 +6442,10 @@
       <c r="F8" s="54">
         <v>3.58</v>
       </c>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:14" ht="18.75" customHeight="1">
       <c r="B9" s="59"/>
@@ -6385,12 +6461,12 @@
       <c r="F9" s="60">
         <v>1.081</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="2:14" ht="18.75" customHeight="1">
       <c r="B10" s="53"/>
@@ -6406,10 +6482,10 @@
       <c r="F10" s="54">
         <v>0.36</v>
       </c>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="2:14" ht="18.75" customHeight="1">
       <c r="B11" s="59"/>
@@ -6425,6 +6501,9 @@
       <c r="F11" s="60">
         <v>0</v>
       </c>
+      <c r="J11" s="76" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="12" spans="2:14" ht="18.75" customHeight="1">
       <c r="B12" s="53"/>
@@ -6439,6 +6518,15 @@
       </c>
       <c r="F12" s="54">
         <v>0</v>
+      </c>
+      <c r="I12">
+        <v>2025</v>
+      </c>
+      <c r="J12">
+        <v>4.2110000000000003</v>
+      </c>
+      <c r="L12" s="76" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="18.75" customHeight="1">
@@ -6449,6 +6537,13 @@
       <c r="D13" s="58"/>
       <c r="E13" s="57"/>
       <c r="F13" s="57"/>
+      <c r="I13">
+        <v>2030</v>
+      </c>
+      <c r="J13">
+        <f>J12-0.362</f>
+        <v>3.8490000000000002</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="18.75" customHeight="1">
       <c r="B14" s="59"/>
@@ -6464,6 +6559,16 @@
       <c r="F14" s="60">
         <v>0.79300000000000004</v>
       </c>
+      <c r="I14">
+        <v>2035</v>
+      </c>
+      <c r="J14">
+        <f>J13-3.069</f>
+        <v>0.78000000000000025</v>
+      </c>
+      <c r="K14" s="76" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" customHeight="1">
       <c r="B15" s="53"/>
@@ -6480,6 +6585,12 @@
       <c r="F15" s="54">
         <v>0.79300000000000004</v>
       </c>
+      <c r="I15">
+        <v>2040</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="2:14" ht="18.75" customHeight="1">
       <c r="B16" s="59"/>
@@ -6487,7 +6598,7 @@
         <v>80</v>
       </c>
       <c r="D16" s="61" t="str">
-        <f t="shared" ref="D16:D19" si="0">D15</f>
+        <f t="shared" ref="D16:D19" si="1">D15</f>
         <v>ELE_EX_BELCHATOW_2</v>
       </c>
       <c r="E16" s="60">
@@ -6497,13 +6608,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="18.75" customHeight="1">
+    <row r="17" spans="2:12" ht="18.75" customHeight="1">
       <c r="B17" s="53"/>
       <c r="C17" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D17" s="55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELE_EX_BELCHATOW_2</v>
       </c>
       <c r="E17" s="54">
@@ -6512,14 +6623,17 @@
       <c r="F17" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J17" s="76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="18.75" customHeight="1">
       <c r="B18" s="59"/>
       <c r="C18" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D18" s="61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELE_EX_BELCHATOW_2</v>
       </c>
       <c r="E18" s="60">
@@ -6528,14 +6642,20 @@
       <c r="F18" s="60">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I18">
+        <v>2025</v>
+      </c>
+      <c r="J18">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="18.75" customHeight="1">
       <c r="B19" s="53"/>
       <c r="C19" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D19" s="55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELE_EX_BELCHATOW_2</v>
       </c>
       <c r="E19" s="54">
@@ -6544,8 +6664,14 @@
       <c r="F19" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I19">
+        <v>2030</v>
+      </c>
+      <c r="J19">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="18.75" customHeight="1">
       <c r="B20" s="56" t="s">
         <v>4</v>
       </c>
@@ -6553,8 +6679,20 @@
       <c r="D20" s="58"/>
       <c r="E20" s="57"/>
       <c r="F20" s="57"/>
-    </row>
-    <row r="21" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I20">
+        <v>2035</v>
+      </c>
+      <c r="J20">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="K20" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="18.75" customHeight="1">
       <c r="B21" s="59"/>
       <c r="C21" s="60" t="s">
         <v>80</v>
@@ -6568,8 +6706,11 @@
       <c r="F21" s="60">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="18.75" customHeight="1">
       <c r="B22" s="53"/>
       <c r="C22" s="54" t="s">
         <v>80</v>
@@ -6584,7 +6725,7 @@
         <v>1.403</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="18.75" customHeight="1">
+    <row r="23" spans="2:12" ht="18.75" customHeight="1">
       <c r="B23" s="59"/>
       <c r="C23" s="60" t="s">
         <v>80</v>
@@ -6598,8 +6739,11 @@
       <c r="F23" s="60">
         <v>1.1739999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J23" s="76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="18.75" customHeight="1">
       <c r="B24" s="53"/>
       <c r="C24" s="54" t="s">
         <v>80</v>
@@ -6613,8 +6757,14 @@
       <c r="F24" s="54">
         <v>0.23899999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I24">
+        <v>2025</v>
+      </c>
+      <c r="J24">
+        <v>1.548</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="18.75" customHeight="1">
       <c r="B25" s="59"/>
       <c r="C25" s="60" t="s">
         <v>80</v>
@@ -6628,8 +6778,14 @@
       <c r="F25" s="60">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I25">
+        <v>2030</v>
+      </c>
+      <c r="J25">
+        <v>1.548</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="18.75" customHeight="1">
       <c r="B26" s="53"/>
       <c r="C26" s="54" t="s">
         <v>80</v>
@@ -6643,8 +6799,14 @@
       <c r="F26" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I26">
+        <v>2035</v>
+      </c>
+      <c r="J26">
+        <v>1.548</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="18.75" customHeight="1">
       <c r="B27" s="56" t="s">
         <v>4</v>
       </c>
@@ -6652,8 +6814,20 @@
       <c r="D27" s="58"/>
       <c r="E27" s="57"/>
       <c r="F27" s="57"/>
-    </row>
-    <row r="28" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I27">
+        <v>2040</v>
+      </c>
+      <c r="J27">
+        <v>1.548</v>
+      </c>
+      <c r="K27" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="18.75" customHeight="1">
       <c r="B28" s="59"/>
       <c r="C28" s="60" t="s">
         <v>80</v>
@@ -6667,8 +6841,14 @@
       <c r="F28" s="60">
         <v>0.439</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I28">
+        <v>2045</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="18.75" customHeight="1">
       <c r="B29" s="53"/>
       <c r="C29" s="54" t="s">
         <v>80</v>
@@ -6684,13 +6864,13 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="18.75" customHeight="1">
+    <row r="30" spans="2:12" ht="18.75" customHeight="1">
       <c r="B30" s="59"/>
       <c r="C30" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D30" s="61" t="str">
-        <f t="shared" ref="D30:D33" si="1">D29</f>
+        <f t="shared" ref="D30:D33" si="2">D29</f>
         <v>ELE_EX_TUROW_2</v>
       </c>
       <c r="E30" s="60">
@@ -6699,14 +6879,17 @@
       <c r="F30" s="60">
         <v>0.439</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J30" s="76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="18.75" customHeight="1">
       <c r="B31" s="53"/>
       <c r="C31" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D31" s="55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ELE_EX_TUROW_2</v>
       </c>
       <c r="E31" s="54">
@@ -6715,14 +6898,20 @@
       <c r="F31" s="54">
         <v>0.439</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I31">
+        <v>2025</v>
+      </c>
+      <c r="J31">
+        <v>0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="18.75" customHeight="1">
       <c r="B32" s="59"/>
       <c r="C32" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D32" s="61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ELE_EX_TUROW_2</v>
       </c>
       <c r="E32" s="60">
@@ -6731,14 +6920,20 @@
       <c r="F32" s="60">
         <v>0.439</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I32">
+        <v>2030</v>
+      </c>
+      <c r="J32">
+        <v>0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="18.75" customHeight="1">
       <c r="B33" s="53"/>
       <c r="C33" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D33" s="55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ELE_EX_TUROW_2</v>
       </c>
       <c r="E33" s="54">
@@ -6747,8 +6942,14 @@
       <c r="F33" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I33">
+        <v>2035</v>
+      </c>
+      <c r="J33">
+        <v>0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="18.75" customHeight="1">
       <c r="B34" s="56" t="s">
         <v>4</v>
       </c>
@@ -6756,8 +6957,20 @@
       <c r="D34" s="58"/>
       <c r="E34" s="57"/>
       <c r="F34" s="57"/>
-    </row>
-    <row r="35" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I34">
+        <v>2040</v>
+      </c>
+      <c r="J34">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="K34" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L34">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="18.75" customHeight="1">
       <c r="B35" s="59"/>
       <c r="C35" s="60" t="s">
         <v>80</v>
@@ -6771,8 +6984,14 @@
       <c r="F35" s="60">
         <v>0.40500000000000003</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I35">
+        <v>2045</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="18.75" customHeight="1">
       <c r="B36" s="53"/>
       <c r="C36" s="54" t="s">
         <v>80</v>
@@ -6787,7 +7006,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="18.75" customHeight="1">
+    <row r="37" spans="2:12" ht="18.75" customHeight="1">
       <c r="B37" s="59"/>
       <c r="C37" s="60" t="s">
         <v>80</v>
@@ -6801,8 +7020,11 @@
       <c r="F37" s="60">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I37" s="76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="18.75" customHeight="1">
       <c r="B38" s="53"/>
       <c r="C38" s="54" t="s">
         <v>80</v>
@@ -6816,8 +7038,11 @@
       <c r="F38" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I38" s="76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="18.75" customHeight="1">
       <c r="B39" s="59"/>
       <c r="C39" s="60" t="s">
         <v>80</v>
@@ -6832,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="18.75" customHeight="1">
+    <row r="40" spans="2:12" ht="18.75" customHeight="1">
       <c r="B40" s="53"/>
       <c r="C40" s="54" t="s">
         <v>80</v>
@@ -6847,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="18.75" customHeight="1">
+    <row r="41" spans="2:12" ht="18.75" customHeight="1">
       <c r="B41" s="56" t="s">
         <v>4</v>
       </c>
@@ -6855,8 +7080,11 @@
       <c r="D41" s="58"/>
       <c r="E41" s="57"/>
       <c r="F41" s="57"/>
-    </row>
-    <row r="42" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J41" s="76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="18.75" customHeight="1">
       <c r="B42" s="59"/>
       <c r="C42" s="60" t="s">
         <v>80</v>
@@ -6870,8 +7098,20 @@
       <c r="F42" s="60">
         <v>0.45100000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I42">
+        <v>2025</v>
+      </c>
+      <c r="J42">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="K42" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L42">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="18.75" customHeight="1">
       <c r="B43" s="53"/>
       <c r="C43" s="54" t="s">
         <v>80</v>
@@ -6886,14 +7126,20 @@
       <c r="F43" s="54">
         <v>0.45100000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I43">
+        <v>2030</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="18.75" customHeight="1">
       <c r="B44" s="59"/>
       <c r="C44" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D44" s="61" t="str">
-        <f t="shared" ref="D44:D47" si="2">D43</f>
+        <f t="shared" ref="D44:D47" si="3">D43</f>
         <v>ELE_EX_PATNOW_2</v>
       </c>
       <c r="E44" s="60">
@@ -6903,13 +7149,13 @@
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="18.75" customHeight="1">
+    <row r="45" spans="2:12" ht="18.75" customHeight="1">
       <c r="B45" s="53"/>
       <c r="C45" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D45" s="55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ELE_EX_PATNOW_2</v>
       </c>
       <c r="E45" s="54">
@@ -6919,13 +7165,13 @@
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="18.75" customHeight="1">
+    <row r="46" spans="2:12" ht="18.75" customHeight="1">
       <c r="B46" s="59"/>
       <c r="C46" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D46" s="61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ELE_EX_PATNOW_2</v>
       </c>
       <c r="E46" s="60">
@@ -6935,13 +7181,13 @@
         <v>0.45100000000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="18.75" customHeight="1">
+    <row r="47" spans="2:12" ht="18.75" customHeight="1">
       <c r="B47" s="53"/>
       <c r="C47" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D47" s="55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ELE_EX_PATNOW_2</v>
       </c>
       <c r="E47" s="54">
@@ -6951,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="18.75" customHeight="1">
+    <row r="48" spans="2:12" ht="18.75" customHeight="1">
       <c r="B48" s="56" t="s">
         <v>4</v>
       </c>
@@ -6960,7 +7206,7 @@
       <c r="E48" s="57"/>
       <c r="F48" s="57"/>
     </row>
-    <row r="49" spans="2:6" ht="18.75" customHeight="1">
+    <row r="49" spans="2:12" ht="18.75" customHeight="1">
       <c r="B49" s="59"/>
       <c r="C49" s="60" t="s">
         <v>80</v>
@@ -6975,7 +7221,7 @@
         <v>0.11776000000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="18.75" customHeight="1">
+    <row r="50" spans="2:12" ht="18.75" customHeight="1">
       <c r="B50" s="53"/>
       <c r="C50" s="54" t="s">
         <v>80</v>
@@ -6990,7 +7236,7 @@
         <v>0.11776000000000002</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="18.75" customHeight="1">
+    <row r="51" spans="2:12" ht="18.75" customHeight="1">
       <c r="B51" s="59"/>
       <c r="C51" s="60" t="s">
         <v>80</v>
@@ -7005,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="18.75" customHeight="1">
+    <row r="52" spans="2:12" ht="18.75" customHeight="1">
       <c r="B52" s="53"/>
       <c r="C52" s="54" t="s">
         <v>80</v>
@@ -7020,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="18.75" customHeight="1">
+    <row r="53" spans="2:12" ht="18.75" customHeight="1">
       <c r="B53" s="59"/>
       <c r="C53" s="60" t="s">
         <v>80</v>
@@ -7035,7 +7281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="18.75" customHeight="1">
+    <row r="54" spans="2:12" ht="18.75" customHeight="1">
       <c r="B54" s="53"/>
       <c r="C54" s="54" t="s">
         <v>80</v>
@@ -7050,7 +7296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="18.75" customHeight="1">
+    <row r="55" spans="2:12" ht="18.75" customHeight="1">
       <c r="B55" s="56" t="s">
         <v>4</v>
       </c>
@@ -7058,8 +7304,11 @@
       <c r="D55" s="58"/>
       <c r="E55" s="57"/>
       <c r="F55" s="57"/>
-    </row>
-    <row r="56" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J55" s="76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="18.75" customHeight="1">
       <c r="B56" s="59"/>
       <c r="C56" s="60" t="s">
         <v>80</v>
@@ -7073,8 +7322,20 @@
       <c r="F56" s="60">
         <v>1.466</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I56">
+        <v>2025</v>
+      </c>
+      <c r="J56">
+        <v>1.84</v>
+      </c>
+      <c r="K56" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L56">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="18.75" customHeight="1">
       <c r="B57" s="53"/>
       <c r="C57" s="54" t="s">
         <v>80</v>
@@ -7088,8 +7349,14 @@
       <c r="F57" s="54">
         <v>0.84199999999999997</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I57">
+        <v>2030</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="18.75" customHeight="1">
       <c r="B58" s="59"/>
       <c r="C58" s="60" t="s">
         <v>80</v>
@@ -7104,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="18.75" customHeight="1">
+    <row r="59" spans="2:12" ht="18.75" customHeight="1">
       <c r="B59" s="53"/>
       <c r="C59" s="54" t="s">
         <v>80</v>
@@ -7119,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="18.75" customHeight="1">
+    <row r="60" spans="2:12" ht="18.75" customHeight="1">
       <c r="B60" s="59"/>
       <c r="C60" s="60" t="s">
         <v>80</v>
@@ -7134,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="18.75" customHeight="1">
+    <row r="61" spans="2:12" ht="18.75" customHeight="1">
       <c r="B61" s="53"/>
       <c r="C61" s="54" t="s">
         <v>80</v>
@@ -7149,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="18.75" customHeight="1">
+    <row r="62" spans="2:12" ht="18.75" customHeight="1">
       <c r="B62" s="56" t="s">
         <v>4</v>
       </c>
@@ -7157,8 +7424,11 @@
       <c r="D62" s="58"/>
       <c r="E62" s="57"/>
       <c r="F62" s="57"/>
-    </row>
-    <row r="63" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J62" s="76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" ht="18.75" customHeight="1">
       <c r="B63" s="59"/>
       <c r="C63" s="60" t="s">
         <v>80</v>
@@ -7172,8 +7442,14 @@
       <c r="F63" s="60">
         <v>1.0449999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I63">
+        <v>2025</v>
+      </c>
+      <c r="J63">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" ht="18.75" customHeight="1">
       <c r="B64" s="53"/>
       <c r="C64" s="54" t="s">
         <v>80</v>
@@ -7188,14 +7464,26 @@
       <c r="F64" s="54">
         <v>1.0449999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I64">
+        <v>2030</v>
+      </c>
+      <c r="J64">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K64" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L64">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" ht="18.75" customHeight="1">
       <c r="B65" s="59"/>
       <c r="C65" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D65" s="61" t="str">
-        <f t="shared" ref="D65:D68" si="3">D64</f>
+        <f t="shared" ref="D65:D68" si="4">D64</f>
         <v>ELE_EX_KOZIENICE_2</v>
       </c>
       <c r="E65" s="60">
@@ -7204,14 +7492,20 @@
       <c r="F65" s="60">
         <v>1.0449999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I65">
+        <v>2035</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" ht="18.75" customHeight="1">
       <c r="B66" s="53"/>
       <c r="C66" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D66" s="55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ELE_EX_KOZIENICE_2</v>
       </c>
       <c r="E66" s="54">
@@ -7221,13 +7515,13 @@
         <v>1.0449999999999999</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="18.75" customHeight="1">
+    <row r="67" spans="2:12" ht="18.75" customHeight="1">
       <c r="B67" s="59"/>
       <c r="C67" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D67" s="61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ELE_EX_KOZIENICE_2</v>
       </c>
       <c r="E67" s="60">
@@ -7237,13 +7531,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="18.75" customHeight="1">
+    <row r="68" spans="2:12" ht="18.75" customHeight="1">
       <c r="B68" s="53"/>
       <c r="C68" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D68" s="55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ELE_EX_KOZIENICE_2</v>
       </c>
       <c r="E68" s="54">
@@ -7252,8 +7546,11 @@
       <c r="F68" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J68" s="76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="18.75" customHeight="1">
       <c r="B69" s="56" t="s">
         <v>4</v>
       </c>
@@ -7261,8 +7558,14 @@
       <c r="D69" s="58"/>
       <c r="E69" s="57"/>
       <c r="F69" s="57"/>
-    </row>
-    <row r="70" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I69">
+        <v>2025</v>
+      </c>
+      <c r="J69">
+        <v>1.1120000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" ht="18.75" customHeight="1">
       <c r="B70" s="59"/>
       <c r="C70" s="60" t="s">
         <v>80</v>
@@ -7276,8 +7579,14 @@
       <c r="F70" s="60">
         <v>0.99199999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I70">
+        <v>2030</v>
+      </c>
+      <c r="J70">
+        <v>1.1120000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" ht="18.75" customHeight="1">
       <c r="B71" s="53"/>
       <c r="C71" s="54" t="s">
         <v>80</v>
@@ -7292,14 +7601,20 @@
       <c r="F71" s="54">
         <v>0.99199999999999999</v>
       </c>
-    </row>
-    <row r="72" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I71">
+        <v>2035</v>
+      </c>
+      <c r="J71">
+        <v>1.1120000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="18.75" customHeight="1">
       <c r="B72" s="59"/>
       <c r="C72" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D72" s="61" t="str">
-        <f t="shared" ref="D72:D75" si="4">D71</f>
+        <f t="shared" ref="D72:D75" si="5">D71</f>
         <v>ELE_EX_KOZIENICE_3</v>
       </c>
       <c r="E72" s="60">
@@ -7308,14 +7623,20 @@
       <c r="F72" s="60">
         <v>0.99199999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I72">
+        <v>2040</v>
+      </c>
+      <c r="J72">
+        <v>1.1120000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" ht="18.75" customHeight="1">
       <c r="B73" s="53"/>
       <c r="C73" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D73" s="55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ELE_EX_KOZIENICE_3</v>
       </c>
       <c r="E73" s="54">
@@ -7324,14 +7645,26 @@
       <c r="F73" s="54">
         <v>0.99199999999999999</v>
       </c>
-    </row>
-    <row r="74" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I73">
+        <v>2045</v>
+      </c>
+      <c r="J73">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="K73" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L73">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="18.75" customHeight="1">
       <c r="B74" s="59"/>
       <c r="C74" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D74" s="61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ELE_EX_KOZIENICE_3</v>
       </c>
       <c r="E74" s="60">
@@ -7340,14 +7673,20 @@
       <c r="F74" s="60">
         <v>0.99199999999999999</v>
       </c>
-    </row>
-    <row r="75" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I74">
+        <v>2050</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" ht="18.75" customHeight="1">
       <c r="B75" s="53"/>
       <c r="C75" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D75" s="55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>ELE_EX_KOZIENICE_3</v>
       </c>
       <c r="E75" s="54">
@@ -7357,7 +7696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="18.75" customHeight="1">
+    <row r="76" spans="2:12" ht="18.75" customHeight="1">
       <c r="B76" s="56" t="s">
         <v>4</v>
       </c>
@@ -7365,8 +7704,14 @@
       <c r="D76" s="58"/>
       <c r="E76" s="57"/>
       <c r="F76" s="57"/>
-    </row>
-    <row r="77" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J76" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="L76" s="76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" ht="18.75" customHeight="1">
       <c r="B77" s="59"/>
       <c r="C77" s="60" t="s">
         <v>80</v>
@@ -7380,8 +7725,17 @@
       <c r="F77" s="60">
         <v>1.4490000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I77">
+        <v>2025</v>
+      </c>
+      <c r="J77">
+        <v>1.492</v>
+      </c>
+      <c r="L77">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" ht="18.75" customHeight="1">
       <c r="B78" s="53"/>
       <c r="C78" s="54" t="s">
         <v>80</v>
@@ -7395,8 +7749,17 @@
       <c r="F78" s="54">
         <v>1.4490000000000001</v>
       </c>
-    </row>
-    <row r="79" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I78">
+        <v>2030</v>
+      </c>
+      <c r="J78">
+        <v>1.492</v>
+      </c>
+      <c r="K78" s="76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="18.75" customHeight="1">
       <c r="B79" s="59"/>
       <c r="C79" s="60" t="s">
         <v>80</v>
@@ -7410,8 +7773,14 @@
       <c r="F79" s="60">
         <v>1.0840000000000001</v>
       </c>
-    </row>
-    <row r="80" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I79">
+        <v>2035</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" ht="18.75" customHeight="1">
       <c r="B80" s="53"/>
       <c r="C80" s="54" t="s">
         <v>80</v>
@@ -7426,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="18.75" customHeight="1">
+    <row r="81" spans="2:13" ht="18.75" customHeight="1">
       <c r="B81" s="59"/>
       <c r="C81" s="60" t="s">
         <v>80</v>
@@ -7441,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="18.75" customHeight="1">
+    <row r="82" spans="2:13" ht="18.75" customHeight="1">
       <c r="B82" s="53"/>
       <c r="C82" s="54" t="s">
         <v>80</v>
@@ -7456,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="18.75" customHeight="1">
+    <row r="83" spans="2:13" ht="18.75" customHeight="1">
       <c r="B83" s="56" t="s">
         <v>4</v>
       </c>
@@ -7464,8 +7833,11 @@
       <c r="D83" s="58"/>
       <c r="E83" s="57"/>
       <c r="F83" s="57"/>
-    </row>
-    <row r="84" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J83" s="76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" ht="18.75" customHeight="1">
       <c r="B84" s="59"/>
       <c r="C84" s="60" t="s">
         <v>80</v>
@@ -7479,8 +7851,14 @@
       <c r="F84" s="60">
         <v>1.712</v>
       </c>
-    </row>
-    <row r="85" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I84">
+        <v>2025</v>
+      </c>
+      <c r="J84">
+        <v>1.9159999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" ht="18.75" customHeight="1">
       <c r="B85" s="53"/>
       <c r="C85" s="54" t="s">
         <v>80</v>
@@ -7495,14 +7873,20 @@
       <c r="F85" s="54">
         <v>1.712</v>
       </c>
-    </row>
-    <row r="86" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I85">
+        <v>2030</v>
+      </c>
+      <c r="J85">
+        <v>1.9159999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" ht="18.75" customHeight="1">
       <c r="B86" s="59"/>
       <c r="C86" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D86" s="61" t="str">
-        <f t="shared" ref="D86:D89" si="5">D85</f>
+        <f t="shared" ref="D86:D89" si="6">D85</f>
         <v>ELE_EX_OPOLE_2</v>
       </c>
       <c r="E86" s="60">
@@ -7511,14 +7895,20 @@
       <c r="F86" s="60">
         <v>1.712</v>
       </c>
-    </row>
-    <row r="87" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I86">
+        <v>2035</v>
+      </c>
+      <c r="J86">
+        <v>1.9159999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" ht="18.75" customHeight="1">
       <c r="B87" s="53"/>
       <c r="C87" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D87" s="55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ELE_EX_OPOLE_2</v>
       </c>
       <c r="E87" s="54">
@@ -7527,14 +7917,20 @@
       <c r="F87" s="54">
         <v>1.712</v>
       </c>
-    </row>
-    <row r="88" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I87">
+        <v>2040</v>
+      </c>
+      <c r="J87">
+        <v>1.9159999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" ht="18.75" customHeight="1">
       <c r="B88" s="59"/>
       <c r="C88" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D88" s="61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ELE_EX_OPOLE_2</v>
       </c>
       <c r="E88" s="60">
@@ -7543,14 +7939,20 @@
       <c r="F88" s="60">
         <v>1.712</v>
       </c>
-    </row>
-    <row r="89" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I88">
+        <v>2045</v>
+      </c>
+      <c r="J88">
+        <v>1.9159999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" ht="18.75" customHeight="1">
       <c r="B89" s="53"/>
       <c r="C89" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D89" s="55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ELE_EX_OPOLE_2</v>
       </c>
       <c r="E89" s="54">
@@ -7559,8 +7961,20 @@
       <c r="F89" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I89">
+        <v>2050</v>
+      </c>
+      <c r="J89">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="K89" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L89">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" ht="18.75" customHeight="1">
       <c r="B90" s="56" t="s">
         <v>4</v>
       </c>
@@ -7569,7 +7983,7 @@
       <c r="E90" s="57"/>
       <c r="F90" s="57"/>
     </row>
-    <row r="91" spans="2:6" ht="18.75" customHeight="1">
+    <row r="91" spans="2:13" ht="18.75" customHeight="1">
       <c r="B91" s="59"/>
       <c r="C91" s="60" t="s">
         <v>80</v>
@@ -7583,8 +7997,11 @@
       <c r="F91" s="60">
         <v>0.82599999999999996</v>
       </c>
-    </row>
-    <row r="92" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J91" s="76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" ht="18.75" customHeight="1">
       <c r="B92" s="53"/>
       <c r="C92" s="54" t="s">
         <v>80</v>
@@ -7598,8 +8015,23 @@
       <c r="F92" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I92">
+        <v>2025</v>
+      </c>
+      <c r="J92">
+        <v>0.92</v>
+      </c>
+      <c r="K92" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L92" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="M92" s="76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" ht="18.75" customHeight="1">
       <c r="B93" s="59"/>
       <c r="C93" s="60" t="s">
         <v>80</v>
@@ -7614,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:6" ht="18.75" customHeight="1">
+    <row r="94" spans="2:13" ht="18.75" customHeight="1">
       <c r="B94" s="53"/>
       <c r="C94" s="54" t="s">
         <v>80</v>
@@ -7629,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:6" ht="18.75" customHeight="1">
+    <row r="95" spans="2:13" ht="18.75" customHeight="1">
       <c r="B95" s="59"/>
       <c r="C95" s="60" t="s">
         <v>80</v>
@@ -7644,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:6" ht="18.75" customHeight="1">
+    <row r="96" spans="2:13" ht="18.75" customHeight="1">
       <c r="B96" s="53"/>
       <c r="C96" s="54" t="s">
         <v>80</v>
@@ -7659,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:6" ht="18.75" customHeight="1">
+    <row r="97" spans="2:12" ht="18.75" customHeight="1">
       <c r="B97" s="56" t="s">
         <v>4</v>
       </c>
@@ -7667,8 +8099,11 @@
       <c r="D97" s="58"/>
       <c r="E97" s="57"/>
       <c r="F97" s="57"/>
-    </row>
-    <row r="98" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J97" s="76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" ht="18.75" customHeight="1">
       <c r="B98" s="59"/>
       <c r="C98" s="60" t="s">
         <v>80</v>
@@ -7682,8 +8117,14 @@
       <c r="F98" s="60">
         <v>1.325</v>
       </c>
-    </row>
-    <row r="99" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I98">
+        <v>2025</v>
+      </c>
+      <c r="J98">
+        <v>1.4490000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" ht="18.75" customHeight="1">
       <c r="B99" s="53"/>
       <c r="C99" s="54" t="s">
         <v>80</v>
@@ -7697,8 +8138,20 @@
       <c r="F99" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I99">
+        <v>2030</v>
+      </c>
+      <c r="J99">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="K99" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L99">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" ht="18.75" customHeight="1">
       <c r="B100" s="59"/>
       <c r="C100" s="60" t="s">
         <v>80</v>
@@ -7712,8 +8165,14 @@
       <c r="F100" s="60">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I100">
+        <v>2035</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" ht="18.75" customHeight="1">
       <c r="B101" s="53"/>
       <c r="C101" s="54" t="s">
         <v>80</v>
@@ -7728,7 +8187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="18.75" customHeight="1">
+    <row r="102" spans="2:12" ht="18.75" customHeight="1">
       <c r="B102" s="59"/>
       <c r="C102" s="60" t="s">
         <v>80</v>
@@ -7743,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="18.75" customHeight="1">
+    <row r="103" spans="2:12" ht="18.75" customHeight="1">
       <c r="B103" s="53"/>
       <c r="C103" s="54" t="s">
         <v>80</v>
@@ -7758,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="18.75" customHeight="1">
+    <row r="104" spans="2:12" ht="18.75" customHeight="1">
       <c r="B104" s="56" t="s">
         <v>4</v>
       </c>
@@ -7766,8 +8225,11 @@
       <c r="D104" s="58"/>
       <c r="E104" s="57"/>
       <c r="F104" s="57"/>
-    </row>
-    <row r="105" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J104" s="76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" ht="18.75" customHeight="1">
       <c r="B105" s="59"/>
       <c r="C105" s="60" t="s">
         <v>80</v>
@@ -7781,8 +8243,20 @@
       <c r="F105" s="60">
         <v>0.82499999999999996</v>
       </c>
-    </row>
-    <row r="106" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I105">
+        <v>2025</v>
+      </c>
+      <c r="J105">
+        <v>0.9</v>
+      </c>
+      <c r="K105" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L105">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" ht="18.75" customHeight="1">
       <c r="B106" s="53"/>
       <c r="C106" s="54" t="s">
         <v>80</v>
@@ -7796,8 +8270,11 @@
       <c r="F106" s="54">
         <v>0.82499999999999996</v>
       </c>
-    </row>
-    <row r="107" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" ht="18.75" customHeight="1">
       <c r="B107" s="59"/>
       <c r="C107" s="60" t="s">
         <v>80</v>
@@ -7812,7 +8289,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="18.75" customHeight="1">
+    <row r="108" spans="2:12" ht="18.75" customHeight="1">
       <c r="B108" s="53"/>
       <c r="C108" s="54" t="s">
         <v>80</v>
@@ -7827,7 +8304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:6" ht="18.75" customHeight="1">
+    <row r="109" spans="2:12" ht="18.75" customHeight="1">
       <c r="B109" s="59"/>
       <c r="C109" s="60" t="s">
         <v>80</v>
@@ -7842,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:6" ht="18.75" customHeight="1">
+    <row r="110" spans="2:12" ht="18.75" customHeight="1">
       <c r="B110" s="53"/>
       <c r="C110" s="54" t="s">
         <v>80</v>
@@ -7857,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:6" ht="18.75" customHeight="1">
+    <row r="111" spans="2:12" ht="18.75" customHeight="1">
       <c r="B111" s="56" t="s">
         <v>4</v>
       </c>
@@ -7865,8 +8342,11 @@
       <c r="D111" s="58"/>
       <c r="E111" s="57"/>
       <c r="F111" s="57"/>
-    </row>
-    <row r="112" spans="2:6" ht="18.75" customHeight="1">
+      <c r="K111" s="76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" ht="18.75" customHeight="1">
       <c r="B112" s="59"/>
       <c r="C112" s="60" t="s">
         <v>80</v>
@@ -7880,8 +8360,20 @@
       <c r="F112" s="60">
         <v>1.0249999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I112">
+        <v>2025</v>
+      </c>
+      <c r="J112">
+        <v>1.38</v>
+      </c>
+      <c r="K112" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L112">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" ht="18.75" customHeight="1">
       <c r="B113" s="53"/>
       <c r="C113" s="54" t="s">
         <v>80</v>
@@ -7896,14 +8388,17 @@
       <c r="F113" s="54">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="114" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" ht="18.75" customHeight="1">
       <c r="B114" s="59"/>
       <c r="C114" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D114" s="61" t="str">
-        <f t="shared" ref="D114:D117" si="6">D113</f>
+        <f t="shared" ref="D114:D117" si="7">D113</f>
         <v>ELE_EX_JAWORZNO_3</v>
       </c>
       <c r="E114" s="60">
@@ -7913,13 +8408,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:6" ht="18.75" customHeight="1">
+    <row r="115" spans="2:12" ht="18.75" customHeight="1">
       <c r="B115" s="53"/>
       <c r="C115" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D115" s="55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ELE_EX_JAWORZNO_3</v>
       </c>
       <c r="E115" s="54">
@@ -7929,13 +8424,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="18.75" customHeight="1">
+    <row r="116" spans="2:12" ht="18.75" customHeight="1">
       <c r="B116" s="59"/>
       <c r="C116" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D116" s="61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ELE_EX_JAWORZNO_3</v>
       </c>
       <c r="E116" s="60">
@@ -7945,13 +8440,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:6" ht="18.75" customHeight="1">
+    <row r="117" spans="2:12" ht="18.75" customHeight="1">
       <c r="B117" s="53"/>
       <c r="C117" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D117" s="55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>ELE_EX_JAWORZNO_3</v>
       </c>
       <c r="E117" s="54">
@@ -7961,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:6" ht="18.75" customHeight="1">
+    <row r="118" spans="2:12" ht="18.75" customHeight="1">
       <c r="B118" s="56" t="s">
         <v>4</v>
       </c>
@@ -7969,8 +8464,11 @@
       <c r="D118" s="58"/>
       <c r="E118" s="57"/>
       <c r="F118" s="57"/>
-    </row>
-    <row r="119" spans="2:6" ht="18.75" customHeight="1">
+      <c r="K118" s="76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" ht="18.75" customHeight="1">
       <c r="B119" s="59"/>
       <c r="C119" s="60" t="s">
         <v>80</v>
@@ -7984,8 +8482,17 @@
       <c r="F119" s="60">
         <v>0.83699999999999997</v>
       </c>
-    </row>
-    <row r="120" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I119">
+        <v>2025</v>
+      </c>
+      <c r="J119">
+        <v>1.05</v>
+      </c>
+      <c r="L119">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" ht="18.75" customHeight="1">
       <c r="B120" s="53"/>
       <c r="C120" s="54" t="s">
         <v>80</v>
@@ -8000,14 +8507,20 @@
       <c r="F120" s="54">
         <v>0.83699999999999997</v>
       </c>
-    </row>
-    <row r="121" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I120">
+        <v>2030</v>
+      </c>
+      <c r="J120">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" ht="18.75" customHeight="1">
       <c r="B121" s="59"/>
       <c r="C121" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D121" s="61" t="str">
-        <f t="shared" ref="D121:D124" si="7">D120</f>
+        <f t="shared" ref="D121:D124" si="8">D120</f>
         <v>ELE_EX_JAWORZNO_2</v>
       </c>
       <c r="E121" s="60">
@@ -8016,14 +8529,20 @@
       <c r="F121" s="60">
         <v>0.83699999999999997</v>
       </c>
-    </row>
-    <row r="122" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I121">
+        <v>2035</v>
+      </c>
+      <c r="J121">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" ht="18.75" customHeight="1">
       <c r="B122" s="53"/>
       <c r="C122" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D122" s="55" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ELE_EX_JAWORZNO_2</v>
       </c>
       <c r="E122" s="54">
@@ -8032,14 +8551,26 @@
       <c r="F122" s="54">
         <v>0.83699999999999997</v>
       </c>
-    </row>
-    <row r="123" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I122">
+        <v>2040</v>
+      </c>
+      <c r="J122">
+        <v>1.04</v>
+      </c>
+      <c r="K122" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L122">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" ht="18.75" customHeight="1">
       <c r="B123" s="59"/>
       <c r="C123" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D123" s="61" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ELE_EX_JAWORZNO_2</v>
       </c>
       <c r="E123" s="60">
@@ -8048,14 +8579,20 @@
       <c r="F123" s="60">
         <v>0.83699999999999997</v>
       </c>
-    </row>
-    <row r="124" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I123">
+        <v>2045</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" ht="18.75" customHeight="1">
       <c r="B124" s="53"/>
       <c r="C124" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D124" s="55" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>ELE_EX_JAWORZNO_2</v>
       </c>
       <c r="E124" s="54">
@@ -8065,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:6" ht="18.75" customHeight="1">
+    <row r="125" spans="2:12" ht="18.75" customHeight="1">
       <c r="B125" s="56" t="s">
         <v>4</v>
       </c>
@@ -8074,7 +8611,7 @@
       <c r="E125" s="57"/>
       <c r="F125" s="57"/>
     </row>
-    <row r="126" spans="2:6" ht="18.75" customHeight="1">
+    <row r="126" spans="2:12" ht="18.75" customHeight="1">
       <c r="B126" s="59"/>
       <c r="C126" s="60" t="s">
         <v>80</v>
@@ -8089,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:6" ht="18.75" customHeight="1">
+    <row r="127" spans="2:12" ht="18.75" customHeight="1">
       <c r="B127" s="53"/>
       <c r="C127" s="54" t="s">
         <v>80</v>
@@ -8104,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:6" ht="18.75" customHeight="1">
+    <row r="128" spans="2:12" ht="18.75" customHeight="1">
       <c r="B128" s="59"/>
       <c r="C128" s="60" t="s">
         <v>80</v>
@@ -8119,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:6" ht="18.75" customHeight="1">
+    <row r="129" spans="2:12" ht="18.75" customHeight="1">
       <c r="B129" s="53"/>
       <c r="C129" s="54" t="s">
         <v>80</v>
@@ -8134,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:6" ht="18.75" customHeight="1">
+    <row r="130" spans="2:12" ht="18.75" customHeight="1">
       <c r="B130" s="59"/>
       <c r="C130" s="60" t="s">
         <v>80</v>
@@ -8149,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:6" ht="18.75" customHeight="1">
+    <row r="131" spans="2:12" ht="18.75" customHeight="1">
       <c r="B131" s="53"/>
       <c r="C131" s="54" t="s">
         <v>80</v>
@@ -8164,7 +8701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:6" ht="18.75" customHeight="1">
+    <row r="132" spans="2:12" ht="18.75" customHeight="1">
       <c r="B132" s="56" t="s">
         <v>4</v>
       </c>
@@ -8173,7 +8710,7 @@
       <c r="E132" s="57"/>
       <c r="F132" s="57"/>
     </row>
-    <row r="133" spans="2:6" ht="18.75" customHeight="1">
+    <row r="133" spans="2:12" ht="18.75" customHeight="1">
       <c r="B133" s="59"/>
       <c r="C133" s="60" t="s">
         <v>80</v>
@@ -8188,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:6" ht="18.75" customHeight="1">
+    <row r="134" spans="2:12" ht="18.75" customHeight="1">
       <c r="B134" s="53"/>
       <c r="C134" s="54" t="s">
         <v>80</v>
@@ -8204,13 +8741,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:6" ht="18.75" customHeight="1">
+    <row r="135" spans="2:12" ht="18.75" customHeight="1">
       <c r="B135" s="59"/>
       <c r="C135" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D135" s="61" t="str">
-        <f t="shared" ref="D135:D138" si="8">D134</f>
+        <f t="shared" ref="D135:D138" si="9">D134</f>
         <v>ELE_EX_LAZISKA_2</v>
       </c>
       <c r="E135" s="60">
@@ -8220,13 +8757,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:6" ht="18.75" customHeight="1">
+    <row r="136" spans="2:12" ht="18.75" customHeight="1">
       <c r="B136" s="53"/>
       <c r="C136" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D136" s="55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ELE_EX_LAZISKA_2</v>
       </c>
       <c r="E136" s="54">
@@ -8236,13 +8773,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:6" ht="18.75" customHeight="1">
+    <row r="137" spans="2:12" ht="18.75" customHeight="1">
       <c r="B137" s="59"/>
       <c r="C137" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D137" s="61" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ELE_EX_LAZISKA_2</v>
       </c>
       <c r="E137" s="60">
@@ -8252,13 +8789,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:6" ht="18.75" customHeight="1">
+    <row r="138" spans="2:12" ht="18.75" customHeight="1">
       <c r="B138" s="53"/>
       <c r="C138" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D138" s="55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>ELE_EX_LAZISKA_2</v>
       </c>
       <c r="E138" s="54">
@@ -8268,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:6" ht="18.75" customHeight="1">
+    <row r="139" spans="2:12" ht="18.75" customHeight="1">
       <c r="B139" s="56" t="s">
         <v>4</v>
       </c>
@@ -8276,8 +8813,11 @@
       <c r="D139" s="58"/>
       <c r="E139" s="57"/>
       <c r="F139" s="57"/>
-    </row>
-    <row r="140" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J139" s="76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" ht="18.75" customHeight="1">
       <c r="B140" s="59"/>
       <c r="C140" s="60" t="s">
         <v>80</v>
@@ -8291,8 +8831,20 @@
       <c r="F140" s="60">
         <v>0.83099999999999996</v>
       </c>
-    </row>
-    <row r="141" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I140">
+        <v>2025</v>
+      </c>
+      <c r="J140">
+        <v>0.92</v>
+      </c>
+      <c r="K140" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L140">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" ht="18.75" customHeight="1">
       <c r="B141" s="53"/>
       <c r="C141" s="54" t="s">
         <v>80</v>
@@ -8308,13 +8860,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:6" ht="18.75" customHeight="1">
+    <row r="142" spans="2:12" ht="18.75" customHeight="1">
       <c r="B142" s="59"/>
       <c r="C142" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D142" s="61" t="str">
-        <f t="shared" ref="D142:D145" si="9">D141</f>
+        <f t="shared" ref="D142:D145" si="10">D141</f>
         <v>ELE_EX_LAZISKA_3</v>
       </c>
       <c r="E142" s="60">
@@ -8324,13 +8876,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:6" ht="18.75" customHeight="1">
+    <row r="143" spans="2:12" ht="18.75" customHeight="1">
       <c r="B143" s="53"/>
       <c r="C143" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D143" s="55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>ELE_EX_LAZISKA_3</v>
       </c>
       <c r="E143" s="54">
@@ -8340,13 +8892,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:6" ht="18.75" customHeight="1">
+    <row r="144" spans="2:12" ht="18.75" customHeight="1">
       <c r="B144" s="59"/>
       <c r="C144" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D144" s="61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>ELE_EX_LAZISKA_3</v>
       </c>
       <c r="E144" s="60">
@@ -8356,13 +8908,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:6" ht="18.75" customHeight="1">
+    <row r="145" spans="2:12" ht="18.75" customHeight="1">
       <c r="B145" s="53"/>
       <c r="C145" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D145" s="55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>ELE_EX_LAZISKA_3</v>
       </c>
       <c r="E145" s="54">
@@ -8372,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:6" ht="18.75" customHeight="1">
+    <row r="146" spans="2:12" ht="18.75" customHeight="1">
       <c r="B146" s="56" t="s">
         <v>4</v>
       </c>
@@ -8381,7 +8933,7 @@
       <c r="E146" s="57"/>
       <c r="F146" s="57"/>
     </row>
-    <row r="147" spans="2:6" ht="18.75" customHeight="1">
+    <row r="147" spans="2:12" ht="18.75" customHeight="1">
       <c r="B147" s="59"/>
       <c r="C147" s="60" t="s">
         <v>80</v>
@@ -8396,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:6" ht="18.75" customHeight="1">
+    <row r="148" spans="2:12" ht="18.75" customHeight="1">
       <c r="B148" s="53"/>
       <c r="C148" s="54" t="s">
         <v>80</v>
@@ -8411,7 +8963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:6" ht="18.75" customHeight="1">
+    <row r="149" spans="2:12" ht="18.75" customHeight="1">
       <c r="B149" s="59"/>
       <c r="C149" s="60" t="s">
         <v>80</v>
@@ -8426,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:6" ht="18.75" customHeight="1">
+    <row r="150" spans="2:12" ht="18.75" customHeight="1">
       <c r="B150" s="53"/>
       <c r="C150" s="54" t="s">
         <v>80</v>
@@ -8441,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:6" ht="18.75" customHeight="1">
+    <row r="151" spans="2:12" ht="18.75" customHeight="1">
       <c r="B151" s="59"/>
       <c r="C151" s="60" t="s">
         <v>80</v>
@@ -8456,7 +9008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:6" ht="18.75" customHeight="1">
+    <row r="152" spans="2:12" ht="18.75" customHeight="1">
       <c r="B152" s="53"/>
       <c r="C152" s="54" t="s">
         <v>80</v>
@@ -8471,7 +9023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:6" ht="18.75" customHeight="1">
+    <row r="153" spans="2:12" ht="18.75" customHeight="1">
       <c r="B153" s="56" t="s">
         <v>4</v>
       </c>
@@ -8479,8 +9031,11 @@
       <c r="D153" s="58"/>
       <c r="E153" s="57"/>
       <c r="F153" s="57"/>
-    </row>
-    <row r="154" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J153" s="76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" ht="18.75" customHeight="1">
       <c r="B154" s="59"/>
       <c r="C154" s="60" t="s">
         <v>80</v>
@@ -8494,8 +9049,20 @@
       <c r="F154" s="60">
         <v>0.42799999999999999</v>
       </c>
-    </row>
-    <row r="155" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I154">
+        <v>2025</v>
+      </c>
+      <c r="J154">
+        <v>0.46</v>
+      </c>
+      <c r="K154" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L154">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" ht="18.75" customHeight="1">
       <c r="B155" s="53"/>
       <c r="C155" s="54" t="s">
         <v>80</v>
@@ -8510,14 +9077,20 @@
       <c r="F155" s="54">
         <v>0.42799999999999999</v>
       </c>
-    </row>
-    <row r="156" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I155">
+        <v>2030</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" ht="18.75" customHeight="1">
       <c r="B156" s="59"/>
       <c r="C156" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D156" s="61" t="str">
-        <f t="shared" ref="D156:D159" si="10">D155</f>
+        <f t="shared" ref="D156:D159" si="11">D155</f>
         <v>ELE_EX_LAGISZA_2</v>
       </c>
       <c r="E156" s="60">
@@ -8527,13 +9100,13 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="157" spans="2:6" ht="18.75" customHeight="1">
+    <row r="157" spans="2:12" ht="18.75" customHeight="1">
       <c r="B157" s="53"/>
       <c r="C157" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D157" s="55" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ELE_EX_LAGISZA_2</v>
       </c>
       <c r="E157" s="54">
@@ -8543,13 +9116,13 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="158" spans="2:6" ht="18.75" customHeight="1">
+    <row r="158" spans="2:12" ht="18.75" customHeight="1">
       <c r="B158" s="59"/>
       <c r="C158" s="60" t="s">
         <v>80</v>
       </c>
       <c r="D158" s="61" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ELE_EX_LAGISZA_2</v>
       </c>
       <c r="E158" s="60">
@@ -8559,13 +9132,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:6" ht="18.75" customHeight="1">
+    <row r="159" spans="2:12" ht="18.75" customHeight="1">
       <c r="B159" s="53"/>
       <c r="C159" s="54" t="s">
         <v>80</v>
       </c>
       <c r="D159" s="55" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>ELE_EX_LAGISZA_2</v>
       </c>
       <c r="E159" s="54">
@@ -8575,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:6" ht="18.75" customHeight="1">
+    <row r="160" spans="2:12" ht="18.75" customHeight="1">
       <c r="B160" s="56" t="s">
         <v>4</v>
       </c>
@@ -8583,8 +9156,11 @@
       <c r="D160" s="58"/>
       <c r="E160" s="57"/>
       <c r="F160" s="57"/>
-    </row>
-    <row r="161" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J160" s="76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" ht="18.75" customHeight="1">
       <c r="B161" s="59"/>
       <c r="C161" s="60" t="s">
         <v>80</v>
@@ -8598,8 +9174,20 @@
       <c r="F161" s="60">
         <v>0.628</v>
       </c>
-    </row>
-    <row r="162" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I161">
+        <v>2025</v>
+      </c>
+      <c r="J161">
+        <v>0.69</v>
+      </c>
+      <c r="K161" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="L161">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12" ht="18.75" customHeight="1">
       <c r="B162" s="53"/>
       <c r="C162" s="54" t="s">
         <v>80</v>
@@ -8613,8 +9201,17 @@
       <c r="F162" s="54">
         <v>0.628</v>
       </c>
-    </row>
-    <row r="163" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I162">
+        <v>2030</v>
+      </c>
+      <c r="J162">
+        <v>0.23</v>
+      </c>
+      <c r="L162">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" ht="18.75" customHeight="1">
       <c r="B163" s="59"/>
       <c r="C163" s="60" t="s">
         <v>80</v>
@@ -8629,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:6" ht="18.75" customHeight="1">
+    <row r="164" spans="2:12" ht="18.75" customHeight="1">
       <c r="B164" s="53"/>
       <c r="C164" s="54" t="s">
         <v>80</v>
@@ -8644,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:6" ht="18.75" customHeight="1">
+    <row r="165" spans="2:12" ht="18.75" customHeight="1">
       <c r="B165" s="59"/>
       <c r="C165" s="60" t="s">
         <v>80</v>
@@ -8659,7 +9256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:6" ht="18.75" customHeight="1">
+    <row r="166" spans="2:12" ht="18.75" customHeight="1">
       <c r="B166" s="53"/>
       <c r="C166" s="54" t="s">
         <v>80</v>
@@ -8674,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:6" ht="18.75" customHeight="1">
+    <row r="167" spans="2:12" ht="18.75" customHeight="1">
       <c r="B167" s="56" t="s">
         <v>4</v>
       </c>
@@ -8683,7 +9280,7 @@
       <c r="E167" s="57"/>
       <c r="F167" s="57"/>
     </row>
-    <row r="168" spans="2:6" ht="18.75" customHeight="1">
+    <row r="168" spans="2:12" ht="18.75" customHeight="1">
       <c r="B168" s="59"/>
       <c r="C168" s="60" t="s">
         <v>80</v>
@@ -8698,7 +9295,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="169" spans="2:6" ht="18.75" customHeight="1">
+    <row r="169" spans="2:12" ht="18.75" customHeight="1">
       <c r="B169" s="53"/>
       <c r="C169" s="54" t="s">
         <v>80</v>
@@ -8713,7 +9310,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="170" spans="2:6" ht="18.75" customHeight="1">
+    <row r="170" spans="2:12" ht="18.75" customHeight="1">
       <c r="B170" s="59"/>
       <c r="C170" s="60" t="s">
         <v>80</v>
@@ -8728,7 +9325,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="171" spans="2:6" ht="18.75" customHeight="1">
+    <row r="171" spans="2:12" ht="18.75" customHeight="1">
       <c r="B171" s="53"/>
       <c r="C171" s="54" t="s">
         <v>80</v>
@@ -8743,7 +9340,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="172" spans="2:6" ht="18.75" customHeight="1">
+    <row r="172" spans="2:12" ht="18.75" customHeight="1">
       <c r="B172" s="59"/>
       <c r="C172" s="60" t="s">
         <v>80</v>
@@ -8758,7 +9355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:6" ht="18.75" customHeight="1">
+    <row r="173" spans="2:12" ht="18.75" customHeight="1">
       <c r="B173" s="53"/>
       <c r="C173" s="54" t="s">
         <v>80</v>
@@ -8773,7 +9370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:6" ht="18.75" customHeight="1">
+    <row r="174" spans="2:12" ht="18.75" customHeight="1">
       <c r="B174" s="56" t="s">
         <v>4</v>
       </c>
@@ -8782,7 +9379,7 @@
       <c r="E174" s="57"/>
       <c r="F174" s="57"/>
     </row>
-    <row r="175" spans="2:6" ht="18.75" customHeight="1">
+    <row r="175" spans="2:12" ht="18.75" customHeight="1">
       <c r="B175" s="59"/>
       <c r="C175" s="60" t="s">
         <v>80</v>
@@ -8797,7 +9394,7 @@
         <v>0.30360000000000004</v>
       </c>
     </row>
-    <row r="176" spans="2:6" ht="18.75" customHeight="1">
+    <row r="176" spans="2:12" ht="18.75" customHeight="1">
       <c r="B176" s="53"/>
       <c r="C176" s="54" t="s">
         <v>80</v>
@@ -9116,7 +9713,7 @@
         <v>80</v>
       </c>
       <c r="D198" s="61" t="str">
-        <f t="shared" ref="D198:D201" si="11">D197</f>
+        <f t="shared" ref="D198:D201" si="12">D197</f>
         <v>ELE_EX_POLANIEC_2</v>
       </c>
       <c r="E198" s="60">
@@ -9132,7 +9729,7 @@
         <v>80</v>
       </c>
       <c r="D199" s="55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ELE_EX_POLANIEC_2</v>
       </c>
       <c r="E199" s="54">
@@ -9148,7 +9745,7 @@
         <v>80</v>
       </c>
       <c r="D200" s="61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ELE_EX_POLANIEC_2</v>
       </c>
       <c r="E200" s="60">
@@ -9164,7 +9761,7 @@
         <v>80</v>
       </c>
       <c r="D201" s="55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>ELE_EX_POLANIEC_2</v>
       </c>
       <c r="E201" s="54">
@@ -9220,7 +9817,7 @@
         <v>80</v>
       </c>
       <c r="D205" s="61" t="str">
-        <f t="shared" ref="D205:D208" si="12">D204</f>
+        <f t="shared" ref="D205:D208" si="13">D204</f>
         <v>ELE_EX_KONIN_2</v>
       </c>
       <c r="E205" s="60">
@@ -9236,7 +9833,7 @@
         <v>80</v>
       </c>
       <c r="D206" s="55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>ELE_EX_KONIN_2</v>
       </c>
       <c r="E206" s="54">
@@ -9252,7 +9849,7 @@
         <v>80</v>
       </c>
       <c r="D207" s="61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>ELE_EX_KONIN_2</v>
       </c>
       <c r="E207" s="60">
@@ -9268,7 +9865,7 @@
         <v>80</v>
       </c>
       <c r="D208" s="55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>ELE_EX_KONIN_2</v>
       </c>
       <c r="E208" s="54">
@@ -9324,7 +9921,7 @@
         <v>80</v>
       </c>
       <c r="D212" s="61" t="str">
-        <f t="shared" ref="D212:D215" si="13">D211</f>
+        <f t="shared" ref="D212:D215" si="14">D211</f>
         <v>ELE_EX_JAWORZNO_4</v>
       </c>
       <c r="E212" s="60">
@@ -9340,7 +9937,7 @@
         <v>80</v>
       </c>
       <c r="D213" s="55" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ELE_EX_JAWORZNO_4</v>
       </c>
       <c r="E213" s="54">
@@ -9356,7 +9953,7 @@
         <v>80</v>
       </c>
       <c r="D214" s="61" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ELE_EX_JAWORZNO_4</v>
       </c>
       <c r="E214" s="60">
@@ -9372,7 +9969,7 @@
         <v>80</v>
       </c>
       <c r="D215" s="55" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>ELE_EX_JAWORZNO_4</v>
       </c>
       <c r="E215" s="54">
@@ -9428,7 +10025,7 @@
         <v>80</v>
       </c>
       <c r="D219" s="61" t="str">
-        <f t="shared" ref="D219:D222" si="14">D218</f>
+        <f t="shared" ref="D219:D222" si="15">D218</f>
         <v>ELE_EX_STALOWA_WOLA_2</v>
       </c>
       <c r="E219" s="60">
@@ -9444,7 +10041,7 @@
         <v>80</v>
       </c>
       <c r="D220" s="55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>ELE_EX_STALOWA_WOLA_2</v>
       </c>
       <c r="E220" s="54">
@@ -9460,7 +10057,7 @@
         <v>80</v>
       </c>
       <c r="D221" s="61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>ELE_EX_STALOWA_WOLA_2</v>
       </c>
       <c r="E221" s="60">
@@ -9476,7 +10073,7 @@
         <v>80</v>
       </c>
       <c r="D222" s="55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>ELE_EX_STALOWA_WOLA_2</v>
       </c>
       <c r="E222" s="54">
@@ -9486,7 +10083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:6" ht="18.649999999999999" customHeight="1">
+    <row r="223" spans="2:6" ht="18.600000000000001" customHeight="1">
       <c r="B223" s="56" t="s">
         <v>4</v>
       </c>
@@ -9504,20 +10101,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91266029-05C6-4B78-9433-D9D3A56C9DB7}">
   <dimension ref="C2:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="3" max="5" width="41.6328125" customWidth="1"/>
-    <col min="6" max="6" width="32.08984375" customWidth="1"/>
-    <col min="7" max="7" width="33.90625" customWidth="1"/>
-    <col min="8" max="12" width="21.54296875" customWidth="1"/>
-    <col min="13" max="16" width="41.6328125" customWidth="1"/>
+    <col min="3" max="5" width="41.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" customWidth="1"/>
+    <col min="8" max="12" width="21.5546875" customWidth="1"/>
+    <col min="13" max="16" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" ht="13">
+    <row r="2" spans="3:12">
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
@@ -9549,7 +10146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="3:12" ht="13" thickBot="1">
+    <row r="3" spans="3:12" ht="13.8" thickBot="1">
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -10696,6 +11293,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -10938,17 +11546,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10959,6 +11556,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F093830-87A7-44EA-9C61-B6AF237A7206}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10977,17 +11585,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_PP_STOCK_BEZP.xlsx
+++ b/SuppXLS/Scen_PP_STOCK_BEZP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFD6CA8-DA91-40CA-8244-5C8B5C9E06CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867F8B7E-706D-43BB-9DF6-56BBB0060AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="132">
   <si>
     <t>LimType</t>
   </si>
@@ -409,6 +409,30 @@
   </si>
   <si>
     <t>Ostrołęka B</t>
+  </si>
+  <si>
+    <t>Konin (tylko Biomasa)</t>
+  </si>
+  <si>
+    <t>(brak danych)</t>
+  </si>
+  <si>
+    <t>Siersza</t>
+  </si>
+  <si>
+    <t>Skawina</t>
+  </si>
+  <si>
+    <t>Polaniec2</t>
+  </si>
+  <si>
+    <t>Konin (węglówka) nie działa</t>
+  </si>
+  <si>
+    <t>Jaworzno Biomasa</t>
+  </si>
+  <si>
+    <t>Stalowa Wola</t>
   </si>
 </sst>
 </file>
@@ -3519,6 +3543,7 @@
     <xf numFmtId="0" fontId="111" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="101" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="104" fillId="44" borderId="0" xfId="1263" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3546,7 +3571,6 @@
     <xf numFmtId="0" fontId="104" fillId="44" borderId="31" xfId="1263" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1267">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5335,7 +5359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83930B13-F88C-46E3-AE4D-91346368DA08}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="F18" sqref="F18:I20"/>
     </sheetView>
   </sheetViews>
@@ -5409,9 +5433,9 @@
       <c r="A6" s="14"/>
       <c r="B6" s="19"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="J6" s="25"/>
       <c r="K6" s="23"/>
       <c r="L6" s="14"/>
@@ -5432,9 +5456,9 @@
       <c r="A8" s="14"/>
       <c r="B8" s="19"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
       <c r="J8" s="25"/>
       <c r="K8" s="23"/>
       <c r="L8" s="14"/>
@@ -5483,15 +5507,15 @@
       <c r="A14" s="14"/>
       <c r="B14" s="19"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="70" t="s">
+      <c r="E14" s="68"/>
+      <c r="F14" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
       <c r="J14" s="25"/>
       <c r="K14" s="23"/>
       <c r="L14" s="14"/>
@@ -5502,9 +5526,9 @@
       <c r="C15" s="24"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
       <c r="J15" s="25"/>
       <c r="K15" s="23"/>
       <c r="L15" s="14"/>
@@ -5529,16 +5553,16 @@
       <c r="A18" s="14"/>
       <c r="B18" s="19"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="71" t="s">
+      <c r="E18" s="68"/>
+      <c r="F18" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
       <c r="J18" s="25"/>
       <c r="K18" s="23"/>
       <c r="L18" s="14"/>
@@ -5549,10 +5573,10 @@
       <c r="C19" s="24"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
       <c r="J19" s="25"/>
       <c r="K19" s="23"/>
       <c r="L19" s="14"/>
@@ -5563,10 +5587,10 @@
       <c r="C20" s="24"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
       <c r="J20" s="25"/>
       <c r="K20" s="23"/>
       <c r="L20" s="14"/>
@@ -5586,10 +5610,10 @@
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="67"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="31">
         <v>45078</v>
       </c>
@@ -5667,10 +5691,10 @@
       <c r="A28" s="14"/>
       <c r="B28" s="19"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="67" t="s">
+      <c r="D28" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="67"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="15" t="s">
         <v>88</v>
       </c>
@@ -5709,10 +5733,10 @@
       <c r="A32" s="14"/>
       <c r="B32" s="19"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="67"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="15" t="s">
         <v>88</v>
       </c>
@@ -5883,11 +5907,11 @@
       <c r="A4" s="14"/>
       <c r="B4" s="19"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="25"/>
       <c r="H4" s="23"/>
       <c r="I4" s="14"/>
@@ -5907,11 +5931,11 @@
       <c r="A6" s="14"/>
       <c r="B6" s="19"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
       <c r="G6" s="25"/>
       <c r="H6" s="23"/>
       <c r="I6" s="14"/>
@@ -6307,8 +6331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB21E4C-71AD-44AD-8298-761DB002D879}">
   <dimension ref="B2:N223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B151" workbookViewId="0">
-      <selection activeCell="K135" sqref="K135"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J224" sqref="J224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6501,7 +6525,7 @@
       <c r="F11" s="60">
         <v>0</v>
       </c>
-      <c r="J11" s="76" t="s">
+      <c r="J11" s="67" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6525,7 +6549,7 @@
       <c r="J12">
         <v>4.2110000000000003</v>
       </c>
-      <c r="L12" s="76" t="s">
+      <c r="L12" s="67" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6566,7 +6590,7 @@
         <f>J13-3.069</f>
         <v>0.78000000000000025</v>
       </c>
-      <c r="K14" s="76" t="s">
+      <c r="K14" s="67" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6623,7 +6647,7 @@
       <c r="F17" s="54">
         <v>0</v>
       </c>
-      <c r="J17" s="76" t="s">
+      <c r="J17" s="67" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6685,7 +6709,7 @@
       <c r="J20">
         <v>0.88600000000000001</v>
       </c>
-      <c r="K20" s="76" t="s">
+      <c r="K20" s="67" t="s">
         <v>99</v>
       </c>
       <c r="L20">
@@ -6739,7 +6763,7 @@
       <c r="F23" s="60">
         <v>1.1739999999999999</v>
       </c>
-      <c r="J23" s="76" t="s">
+      <c r="J23" s="67" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6820,7 +6844,7 @@
       <c r="J27">
         <v>1.548</v>
       </c>
-      <c r="K27" s="76" t="s">
+      <c r="K27" s="67" t="s">
         <v>99</v>
       </c>
       <c r="L27">
@@ -6879,7 +6903,7 @@
       <c r="F30" s="60">
         <v>0.439</v>
       </c>
-      <c r="J30" s="76" t="s">
+      <c r="J30" s="67" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6963,7 +6987,7 @@
       <c r="J34">
         <v>0.51300000000000001</v>
       </c>
-      <c r="K34" s="76" t="s">
+      <c r="K34" s="67" t="s">
         <v>99</v>
       </c>
       <c r="L34">
@@ -7020,7 +7044,7 @@
       <c r="F37" s="60">
         <v>0</v>
       </c>
-      <c r="I37" s="76" t="s">
+      <c r="I37" s="67" t="s">
         <v>112</v>
       </c>
     </row>
@@ -7038,7 +7062,7 @@
       <c r="F38" s="54">
         <v>0</v>
       </c>
-      <c r="I38" s="76" t="s">
+      <c r="I38" s="67" t="s">
         <v>107</v>
       </c>
     </row>
@@ -7080,7 +7104,7 @@
       <c r="D41" s="58"/>
       <c r="E41" s="57"/>
       <c r="F41" s="57"/>
-      <c r="J41" s="76" t="s">
+      <c r="J41" s="67" t="s">
         <v>108</v>
       </c>
     </row>
@@ -7104,7 +7128,7 @@
       <c r="J42">
         <v>0.46400000000000002</v>
       </c>
-      <c r="K42" s="76" t="s">
+      <c r="K42" s="67" t="s">
         <v>99</v>
       </c>
       <c r="L42">
@@ -7205,6 +7229,9 @@
       <c r="D48" s="58"/>
       <c r="E48" s="57"/>
       <c r="F48" s="57"/>
+      <c r="J48" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="49" spans="2:12" ht="18.75" customHeight="1">
       <c r="B49" s="59"/>
@@ -7304,7 +7331,7 @@
       <c r="D55" s="58"/>
       <c r="E55" s="57"/>
       <c r="F55" s="57"/>
-      <c r="J55" s="76" t="s">
+      <c r="J55" s="67" t="s">
         <v>113</v>
       </c>
     </row>
@@ -7328,7 +7355,7 @@
       <c r="J56">
         <v>1.84</v>
       </c>
-      <c r="K56" s="76" t="s">
+      <c r="K56" s="67" t="s">
         <v>99</v>
       </c>
       <c r="L56">
@@ -7424,7 +7451,7 @@
       <c r="D62" s="58"/>
       <c r="E62" s="57"/>
       <c r="F62" s="57"/>
-      <c r="J62" s="76" t="s">
+      <c r="J62" s="67" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7470,7 +7497,7 @@
       <c r="J64">
         <v>1.1200000000000001</v>
       </c>
-      <c r="K64" s="76" t="s">
+      <c r="K64" s="67" t="s">
         <v>99</v>
       </c>
       <c r="L64">
@@ -7546,7 +7573,7 @@
       <c r="F68" s="54">
         <v>0</v>
       </c>
-      <c r="J68" s="76" t="s">
+      <c r="J68" s="67" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7651,7 +7678,7 @@
       <c r="J73">
         <v>1.1120000000000001</v>
       </c>
-      <c r="K73" s="76" t="s">
+      <c r="K73" s="67" t="s">
         <v>99</v>
       </c>
       <c r="L73">
@@ -7704,10 +7731,10 @@
       <c r="D76" s="58"/>
       <c r="E76" s="57"/>
       <c r="F76" s="57"/>
-      <c r="J76" s="76" t="s">
+      <c r="J76" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="L76" s="76" t="s">
+      <c r="L76" s="67" t="s">
         <v>119</v>
       </c>
     </row>
@@ -7755,7 +7782,7 @@
       <c r="J78">
         <v>1.492</v>
       </c>
-      <c r="K78" s="76" t="s">
+      <c r="K78" s="67" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7833,7 +7860,7 @@
       <c r="D83" s="58"/>
       <c r="E83" s="57"/>
       <c r="F83" s="57"/>
-      <c r="J83" s="76" t="s">
+      <c r="J83" s="67" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7967,7 +7994,7 @@
       <c r="J89">
         <v>1.9159999999999999</v>
       </c>
-      <c r="K89" s="76" t="s">
+      <c r="K89" s="67" t="s">
         <v>99</v>
       </c>
       <c r="L89">
@@ -7997,7 +8024,7 @@
       <c r="F91" s="60">
         <v>0.82599999999999996</v>
       </c>
-      <c r="J91" s="76" t="s">
+      <c r="J91" s="67" t="s">
         <v>118</v>
       </c>
     </row>
@@ -8021,13 +8048,13 @@
       <c r="J92">
         <v>0.92</v>
       </c>
-      <c r="K92" s="76" t="s">
+      <c r="K92" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="L92" s="76" t="s">
+      <c r="L92" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="M92" s="76" t="s">
+      <c r="M92" s="67" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8099,7 +8126,7 @@
       <c r="D97" s="58"/>
       <c r="E97" s="57"/>
       <c r="F97" s="57"/>
-      <c r="J97" s="76" t="s">
+      <c r="J97" s="67" t="s">
         <v>109</v>
       </c>
     </row>
@@ -8144,7 +8171,7 @@
       <c r="J99">
         <v>1.4490000000000001</v>
       </c>
-      <c r="K99" s="76" t="s">
+      <c r="K99" s="67" t="s">
         <v>99</v>
       </c>
       <c r="L99">
@@ -8225,7 +8252,7 @@
       <c r="D104" s="58"/>
       <c r="E104" s="57"/>
       <c r="F104" s="57"/>
-      <c r="J104" s="76" t="s">
+      <c r="J104" s="67" t="s">
         <v>120</v>
       </c>
     </row>
@@ -8249,7 +8276,7 @@
       <c r="J105">
         <v>0.9</v>
       </c>
-      <c r="K105" s="76" t="s">
+      <c r="K105" s="67" t="s">
         <v>99</v>
       </c>
       <c r="L105">
@@ -8342,7 +8369,7 @@
       <c r="D111" s="58"/>
       <c r="E111" s="57"/>
       <c r="F111" s="57"/>
-      <c r="K111" s="76" t="s">
+      <c r="K111" s="67" t="s">
         <v>102</v>
       </c>
     </row>
@@ -8366,7 +8393,7 @@
       <c r="J112">
         <v>1.38</v>
       </c>
-      <c r="K112" s="76" t="s">
+      <c r="K112" s="67" t="s">
         <v>99</v>
       </c>
       <c r="L112">
@@ -8464,7 +8491,7 @@
       <c r="D118" s="58"/>
       <c r="E118" s="57"/>
       <c r="F118" s="57"/>
-      <c r="K118" s="76" t="s">
+      <c r="K118" s="67" t="s">
         <v>103</v>
       </c>
     </row>
@@ -8557,7 +8584,7 @@
       <c r="J122">
         <v>1.04</v>
       </c>
-      <c r="K122" s="76" t="s">
+      <c r="K122" s="67" t="s">
         <v>99</v>
       </c>
       <c r="L122">
@@ -8813,7 +8840,7 @@
       <c r="D139" s="58"/>
       <c r="E139" s="57"/>
       <c r="F139" s="57"/>
-      <c r="J139" s="76" t="s">
+      <c r="J139" s="67" t="s">
         <v>121</v>
       </c>
     </row>
@@ -8837,7 +8864,7 @@
       <c r="J140">
         <v>0.92</v>
       </c>
-      <c r="K140" s="76" t="s">
+      <c r="K140" s="67" t="s">
         <v>99</v>
       </c>
       <c r="L140">
@@ -9031,7 +9058,7 @@
       <c r="D153" s="58"/>
       <c r="E153" s="57"/>
       <c r="F153" s="57"/>
-      <c r="J153" s="76" t="s">
+      <c r="J153" s="67" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9055,7 +9082,7 @@
       <c r="J154">
         <v>0.46</v>
       </c>
-      <c r="K154" s="76" t="s">
+      <c r="K154" s="67" t="s">
         <v>99</v>
       </c>
       <c r="L154">
@@ -9156,7 +9183,7 @@
       <c r="D160" s="58"/>
       <c r="E160" s="57"/>
       <c r="F160" s="57"/>
-      <c r="J160" s="76" t="s">
+      <c r="J160" s="67" t="s">
         <v>123</v>
       </c>
     </row>
@@ -9180,9 +9207,6 @@
       <c r="J161">
         <v>0.69</v>
       </c>
-      <c r="K161" s="76" t="s">
-        <v>99</v>
-      </c>
       <c r="L161">
         <v>2025</v>
       </c>
@@ -9207,8 +9231,11 @@
       <c r="J162">
         <v>0.23</v>
       </c>
+      <c r="K162" s="67" t="s">
+        <v>99</v>
+      </c>
       <c r="L162">
-        <v>2029</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="163" spans="2:12" ht="18.75" customHeight="1">
@@ -9223,6 +9250,9 @@
         <v>2035</v>
       </c>
       <c r="F163" s="60">
+        <v>0</v>
+      </c>
+      <c r="J163">
         <v>0</v>
       </c>
     </row>
@@ -9279,6 +9309,9 @@
       <c r="D167" s="58"/>
       <c r="E167" s="57"/>
       <c r="F167" s="57"/>
+      <c r="J167" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="168" spans="2:12" ht="18.75" customHeight="1">
       <c r="B168" s="59"/>
@@ -9294,6 +9327,18 @@
       <c r="F168" s="60">
         <v>0.28100000000000003</v>
       </c>
+      <c r="I168">
+        <v>2025</v>
+      </c>
+      <c r="J168">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="K168" t="s">
+        <v>99</v>
+      </c>
+      <c r="L168">
+        <v>2028</v>
+      </c>
     </row>
     <row r="169" spans="2:12" ht="18.75" customHeight="1">
       <c r="B169" s="53"/>
@@ -9308,6 +9353,12 @@
       </c>
       <c r="F169" s="54">
         <v>0.28100000000000003</v>
+      </c>
+      <c r="I169">
+        <v>2030</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="2:12" ht="18.75" customHeight="1">
@@ -9378,6 +9429,9 @@
       <c r="D174" s="58"/>
       <c r="E174" s="57"/>
       <c r="F174" s="57"/>
+      <c r="J174" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="175" spans="2:12" ht="18.75" customHeight="1">
       <c r="B175" s="59"/>
@@ -9393,6 +9447,15 @@
       <c r="F175" s="60">
         <v>0.30360000000000004</v>
       </c>
+      <c r="I175">
+        <v>2025</v>
+      </c>
+      <c r="J175">
+        <v>0.33</v>
+      </c>
+      <c r="L175" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="176" spans="2:12" ht="18.75" customHeight="1">
       <c r="B176" s="53"/>
@@ -9408,8 +9471,14 @@
       <c r="F176" s="54">
         <v>0.30360000000000004</v>
       </c>
-    </row>
-    <row r="177" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I176">
+        <v>2030</v>
+      </c>
+      <c r="J176">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" ht="18.75" customHeight="1">
       <c r="B177" s="59"/>
       <c r="C177" s="60" t="s">
         <v>80</v>
@@ -9423,8 +9492,17 @@
       <c r="F177" s="60">
         <v>0.30360000000000004</v>
       </c>
-    </row>
-    <row r="178" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I177">
+        <v>2035</v>
+      </c>
+      <c r="J177">
+        <v>0.33</v>
+      </c>
+      <c r="K177" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" ht="18.75" customHeight="1">
       <c r="B178" s="53"/>
       <c r="C178" s="54" t="s">
         <v>80</v>
@@ -9438,8 +9516,14 @@
       <c r="F178" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I178">
+        <v>240</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" ht="18.75" customHeight="1">
       <c r="B179" s="59"/>
       <c r="C179" s="60" t="s">
         <v>80</v>
@@ -9454,7 +9538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:6" ht="18.75" customHeight="1">
+    <row r="180" spans="2:11" ht="18.75" customHeight="1">
       <c r="B180" s="53"/>
       <c r="C180" s="54" t="s">
         <v>80</v>
@@ -9469,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:6" ht="18.75" customHeight="1">
+    <row r="181" spans="2:11" ht="18.75" customHeight="1">
       <c r="B181" s="56" t="s">
         <v>4</v>
       </c>
@@ -9478,7 +9562,7 @@
       <c r="E181" s="57"/>
       <c r="F181" s="57"/>
     </row>
-    <row r="182" spans="2:6" ht="18.75" customHeight="1">
+    <row r="182" spans="2:11" ht="18.75" customHeight="1">
       <c r="B182" s="59"/>
       <c r="C182" s="60" t="s">
         <v>80</v>
@@ -9493,7 +9577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:6" ht="18.75" customHeight="1">
+    <row r="183" spans="2:11" ht="18.75" customHeight="1">
       <c r="B183" s="53"/>
       <c r="C183" s="54" t="s">
         <v>80</v>
@@ -9508,7 +9592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:6" ht="18.75" customHeight="1">
+    <row r="184" spans="2:11" ht="18.75" customHeight="1">
       <c r="B184" s="59"/>
       <c r="C184" s="60" t="s">
         <v>80</v>
@@ -9523,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:6" ht="18.75" customHeight="1">
+    <row r="185" spans="2:11" ht="18.75" customHeight="1">
       <c r="B185" s="53"/>
       <c r="C185" s="54" t="s">
         <v>80</v>
@@ -9538,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:6" ht="18.75" customHeight="1">
+    <row r="186" spans="2:11" ht="18.75" customHeight="1">
       <c r="B186" s="59"/>
       <c r="C186" s="60" t="s">
         <v>80</v>
@@ -9553,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:6" ht="18.75" customHeight="1">
+    <row r="187" spans="2:11" ht="18.75" customHeight="1">
       <c r="B187" s="53"/>
       <c r="C187" s="54" t="s">
         <v>80</v>
@@ -9568,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:6" ht="18.75" customHeight="1">
+    <row r="188" spans="2:11" ht="18.75" customHeight="1">
       <c r="B188" s="56" t="s">
         <v>4</v>
       </c>
@@ -9577,7 +9661,7 @@
       <c r="E188" s="57"/>
       <c r="F188" s="57"/>
     </row>
-    <row r="189" spans="2:6" ht="18.75" customHeight="1">
+    <row r="189" spans="2:11" ht="18.75" customHeight="1">
       <c r="B189" s="59"/>
       <c r="C189" s="60" t="s">
         <v>80</v>
@@ -9592,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:6" ht="18.75" customHeight="1">
+    <row r="190" spans="2:11" ht="18.75" customHeight="1">
       <c r="B190" s="53"/>
       <c r="C190" s="54" t="s">
         <v>80</v>
@@ -9607,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:6" ht="18.75" customHeight="1">
+    <row r="191" spans="2:11" ht="18.75" customHeight="1">
       <c r="B191" s="59"/>
       <c r="C191" s="60" t="s">
         <v>80</v>
@@ -9622,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:6" ht="18.75" customHeight="1">
+    <row r="192" spans="2:11" ht="18.75" customHeight="1">
       <c r="B192" s="53"/>
       <c r="C192" s="54" t="s">
         <v>80</v>
@@ -9637,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:6" ht="18.75" customHeight="1">
+    <row r="193" spans="2:12" ht="18.75" customHeight="1">
       <c r="B193" s="59"/>
       <c r="C193" s="60" t="s">
         <v>80</v>
@@ -9652,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:6" ht="18.75" customHeight="1">
+    <row r="194" spans="2:12" ht="18.75" customHeight="1">
       <c r="B194" s="53"/>
       <c r="C194" s="54" t="s">
         <v>80</v>
@@ -9667,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:6" ht="18.75" customHeight="1">
+    <row r="195" spans="2:12" ht="18.75" customHeight="1">
       <c r="B195" s="56" t="s">
         <v>4</v>
       </c>
@@ -9675,8 +9759,11 @@
       <c r="D195" s="58"/>
       <c r="E195" s="57"/>
       <c r="F195" s="57"/>
-    </row>
-    <row r="196" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J195" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="196" spans="2:12" ht="18.75" customHeight="1">
       <c r="B196" s="59"/>
       <c r="C196" s="60" t="s">
         <v>80</v>
@@ -9690,8 +9777,14 @@
       <c r="F196" s="60">
         <v>0.19739999999999999</v>
       </c>
-    </row>
-    <row r="197" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I196">
+        <v>2025</v>
+      </c>
+      <c r="J196">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="197" spans="2:12" ht="18.75" customHeight="1">
       <c r="B197" s="53"/>
       <c r="C197" s="54" t="s">
         <v>80</v>
@@ -9706,8 +9799,14 @@
       <c r="F197" s="54">
         <v>0.19739999999999999</v>
       </c>
-    </row>
-    <row r="198" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I197">
+        <v>2030</v>
+      </c>
+      <c r="J197">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" ht="18.75" customHeight="1">
       <c r="B198" s="59"/>
       <c r="C198" s="60" t="s">
         <v>80</v>
@@ -9722,8 +9821,14 @@
       <c r="F198" s="60">
         <v>0.19739999999999999</v>
       </c>
-    </row>
-    <row r="199" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I198">
+        <v>2035</v>
+      </c>
+      <c r="J198">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" ht="18.75" customHeight="1">
       <c r="B199" s="53"/>
       <c r="C199" s="54" t="s">
         <v>80</v>
@@ -9738,8 +9843,20 @@
       <c r="F199" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I199">
+        <v>2040</v>
+      </c>
+      <c r="J199">
+        <v>0.23</v>
+      </c>
+      <c r="K199" t="s">
+        <v>99</v>
+      </c>
+      <c r="L199">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" ht="18.75" customHeight="1">
       <c r="B200" s="59"/>
       <c r="C200" s="60" t="s">
         <v>80</v>
@@ -9754,8 +9871,14 @@
       <c r="F200" s="60">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I200">
+        <v>2045</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:12" ht="18.75" customHeight="1">
       <c r="B201" s="53"/>
       <c r="C201" s="54" t="s">
         <v>80</v>
@@ -9771,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:6" ht="18.75" customHeight="1">
+    <row r="202" spans="2:12" ht="18.75" customHeight="1">
       <c r="B202" s="56" t="s">
         <v>4</v>
       </c>
@@ -9779,8 +9902,11 @@
       <c r="D202" s="58"/>
       <c r="E202" s="57"/>
       <c r="F202" s="57"/>
-    </row>
-    <row r="203" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J202" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="203" spans="2:12" ht="18.75" customHeight="1">
       <c r="B203" s="59"/>
       <c r="C203" s="60" t="s">
         <v>80</v>
@@ -9794,8 +9920,14 @@
       <c r="F203" s="60">
         <v>4.3900000000000002E-2</v>
       </c>
-    </row>
-    <row r="204" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I203">
+        <v>2025</v>
+      </c>
+      <c r="J203">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="204" spans="2:12" ht="18.75" customHeight="1">
       <c r="B204" s="53"/>
       <c r="C204" s="54" t="s">
         <v>80</v>
@@ -9810,8 +9942,14 @@
       <c r="F204" s="54">
         <v>4.3900000000000002E-2</v>
       </c>
-    </row>
-    <row r="205" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I204">
+        <v>2030</v>
+      </c>
+      <c r="J204">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="205" spans="2:12" ht="18.75" customHeight="1">
       <c r="B205" s="59"/>
       <c r="C205" s="60" t="s">
         <v>80</v>
@@ -9826,8 +9964,20 @@
       <c r="F205" s="60">
         <v>4.3900000000000002E-2</v>
       </c>
-    </row>
-    <row r="206" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I205">
+        <v>2035</v>
+      </c>
+      <c r="J205">
+        <v>0.1</v>
+      </c>
+      <c r="K205" t="s">
+        <v>99</v>
+      </c>
+      <c r="L205" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="206" spans="2:12" ht="18.75" customHeight="1">
       <c r="B206" s="53"/>
       <c r="C206" s="54" t="s">
         <v>80</v>
@@ -9842,8 +9992,11 @@
       <c r="F206" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:12" ht="18.75" customHeight="1">
       <c r="B207" s="59"/>
       <c r="C207" s="60" t="s">
         <v>80</v>
@@ -9859,7 +10012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:6" ht="18.75" customHeight="1">
+    <row r="208" spans="2:12" ht="18.75" customHeight="1">
       <c r="B208" s="53"/>
       <c r="C208" s="54" t="s">
         <v>80</v>
@@ -9875,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:6" ht="18.75" customHeight="1">
+    <row r="209" spans="2:12" ht="18.75" customHeight="1">
       <c r="B209" s="56" t="s">
         <v>4</v>
       </c>
@@ -9883,8 +10036,11 @@
       <c r="D209" s="58"/>
       <c r="E209" s="57"/>
       <c r="F209" s="57"/>
-    </row>
-    <row r="210" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J209" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="210" spans="2:12" ht="18.75" customHeight="1">
       <c r="B210" s="59"/>
       <c r="C210" s="60" t="s">
         <v>80</v>
@@ -9898,8 +10054,20 @@
       <c r="F210" s="60">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="211" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I210">
+        <v>2025</v>
+      </c>
+      <c r="J210">
+        <v>0.05</v>
+      </c>
+      <c r="K210" t="s">
+        <v>99</v>
+      </c>
+      <c r="L210">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="211" spans="2:12" ht="18.75" customHeight="1">
       <c r="B211" s="53"/>
       <c r="C211" s="54" t="s">
         <v>80</v>
@@ -9914,8 +10082,14 @@
       <c r="F211" s="54">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="212" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I211">
+        <v>2030</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:12" ht="18.75" customHeight="1">
       <c r="B212" s="59"/>
       <c r="C212" s="60" t="s">
         <v>80</v>
@@ -9931,7 +10105,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="213" spans="2:6" ht="18.75" customHeight="1">
+    <row r="213" spans="2:12" ht="18.75" customHeight="1">
       <c r="B213" s="53"/>
       <c r="C213" s="54" t="s">
         <v>80</v>
@@ -9947,7 +10121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:6" ht="18.75" customHeight="1">
+    <row r="214" spans="2:12" ht="18.75" customHeight="1">
       <c r="B214" s="59"/>
       <c r="C214" s="60" t="s">
         <v>80</v>
@@ -9963,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:6" ht="18.75" customHeight="1">
+    <row r="215" spans="2:12" ht="18.75" customHeight="1">
       <c r="B215" s="53"/>
       <c r="C215" s="54" t="s">
         <v>80</v>
@@ -9979,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:6" ht="18.75" customHeight="1">
+    <row r="216" spans="2:12" ht="18.75" customHeight="1">
       <c r="B216" s="56" t="s">
         <v>4</v>
       </c>
@@ -9987,8 +10161,11 @@
       <c r="D216" s="58"/>
       <c r="E216" s="57"/>
       <c r="F216" s="57"/>
-    </row>
-    <row r="217" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J216" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12" ht="18.75" customHeight="1">
       <c r="B217" s="59"/>
       <c r="C217" s="60" t="s">
         <v>80</v>
@@ -10002,8 +10179,17 @@
       <c r="F217" s="60">
         <v>2.1899999999999999E-2</v>
       </c>
-    </row>
-    <row r="218" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I217">
+        <v>2025</v>
+      </c>
+      <c r="J217">
+        <v>0.02</v>
+      </c>
+      <c r="L217" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12" ht="18.75" customHeight="1">
       <c r="B218" s="53"/>
       <c r="C218" s="54" t="s">
         <v>80</v>
@@ -10018,8 +10204,14 @@
       <c r="F218" s="54">
         <v>2.1899999999999999E-2</v>
       </c>
-    </row>
-    <row r="219" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I218">
+        <v>2030</v>
+      </c>
+      <c r="J218">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12" ht="18.75" customHeight="1">
       <c r="B219" s="59"/>
       <c r="C219" s="60" t="s">
         <v>80</v>
@@ -10034,8 +10226,17 @@
       <c r="F219" s="60">
         <v>2.1899999999999999E-2</v>
       </c>
-    </row>
-    <row r="220" spans="2:6" ht="18.75" customHeight="1">
+      <c r="I219">
+        <v>2035</v>
+      </c>
+      <c r="J219">
+        <v>0.02</v>
+      </c>
+      <c r="K219" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="220" spans="2:12" ht="18.75" customHeight="1">
       <c r="B220" s="53"/>
       <c r="C220" s="54" t="s">
         <v>80</v>
@@ -10050,8 +10251,11 @@
       <c r="F220" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="2:6" ht="18.75" customHeight="1">
+      <c r="J220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12" ht="18.75" customHeight="1">
       <c r="B221" s="59"/>
       <c r="C221" s="60" t="s">
         <v>80</v>
@@ -10067,7 +10271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:6" ht="18.75" customHeight="1">
+    <row r="222" spans="2:12" ht="18.75" customHeight="1">
       <c r="B222" s="53"/>
       <c r="C222" s="54" t="s">
         <v>80</v>
@@ -10083,7 +10287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:6" ht="18.600000000000001" customHeight="1">
+    <row r="223" spans="2:12" ht="18.600000000000001" customHeight="1">
       <c r="B223" s="56" t="s">
         <v>4</v>
       </c>
@@ -10101,9 +10305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91266029-05C6-4B78-9433-D9D3A56C9DB7}">
   <dimension ref="C2:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -11293,17 +11495,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -11546,6 +11737,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11556,17 +11758,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F093830-87A7-44EA-9C61-B6AF237A7206}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11585,6 +11776,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_PP_STOCK_BEZP.xlsx
+++ b/SuppXLS/Scen_PP_STOCK_BEZP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867F8B7E-706D-43BB-9DF6-56BBB0060AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E863B24-0DAB-4D8C-8575-29E716C61C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1284" yWindow="252" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="5" r:id="rId1"/>
@@ -6331,8 +6331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB21E4C-71AD-44AD-8298-761DB002D879}">
   <dimension ref="B2:N223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J224" sqref="J224"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="H212" sqref="H212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6429,27 +6429,27 @@
       </c>
       <c r="I7">
         <f t="shared" ref="I7:N7" si="0">SUMIF($E$7:$E$222,I$6,$F$7:$F$222)</f>
-        <v>21.810559999999995</v>
+        <v>21.287799999999994</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>17.043559999999992</v>
+        <v>14.350799999999998</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>10.9588</v>
+        <v>7.4627999999999988</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>6.7839999999999989</v>
+        <v>5.5804</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>4.431</v>
+        <v>2.7039999999999997</v>
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.712</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="18.75" customHeight="1">
@@ -6483,7 +6483,7 @@
         <v>2035</v>
       </c>
       <c r="F9" s="60">
-        <v>1.081</v>
+        <v>0.72</v>
       </c>
       <c r="H9" s="65" t="s">
         <v>97</v>
@@ -6504,7 +6504,7 @@
         <v>2040</v>
       </c>
       <c r="F10" s="54">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
@@ -6629,7 +6629,7 @@
         <v>2035</v>
       </c>
       <c r="F16" s="60">
-        <v>0</v>
+        <v>0.79300000000000004</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="18.75" customHeight="1">
@@ -6761,7 +6761,7 @@
         <v>2035</v>
       </c>
       <c r="F23" s="60">
-        <v>1.1739999999999999</v>
+        <v>1.403</v>
       </c>
       <c r="J23" s="67" t="s">
         <v>110</v>
@@ -6779,7 +6779,7 @@
         <v>2040</v>
       </c>
       <c r="F24" s="54">
-        <v>0.23899999999999999</v>
+        <v>1.403</v>
       </c>
       <c r="I24">
         <v>2025</v>
@@ -6942,7 +6942,7 @@
         <v>2045</v>
       </c>
       <c r="F32" s="60">
-        <v>0.439</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>2030</v>
@@ -7006,7 +7006,7 @@
         <v>2025</v>
       </c>
       <c r="F35" s="60">
-        <v>0.40500000000000003</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>2045</v>
@@ -7027,7 +7027,7 @@
         <v>2030</v>
       </c>
       <c r="F36" s="54">
-        <v>0.40500000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="18.75" customHeight="1">
@@ -7148,7 +7148,7 @@
         <v>2030</v>
       </c>
       <c r="F43" s="54">
-        <v>0.45100000000000001</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>2030</v>
@@ -7170,7 +7170,7 @@
         <v>2035</v>
       </c>
       <c r="F44" s="60">
-        <v>0.45100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="18.75" customHeight="1">
@@ -7186,7 +7186,7 @@
         <v>2040</v>
       </c>
       <c r="F45" s="54">
-        <v>0.45100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="18.75" customHeight="1">
@@ -7202,7 +7202,7 @@
         <v>2045</v>
       </c>
       <c r="F46" s="60">
-        <v>0.45100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="18.75" customHeight="1">
@@ -7245,7 +7245,7 @@
         <v>2025</v>
       </c>
       <c r="F49" s="60">
-        <v>0.11776000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:12" ht="18.75" customHeight="1">
@@ -7260,7 +7260,7 @@
         <v>2030</v>
       </c>
       <c r="F50" s="54">
-        <v>0.11776000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="18.75" customHeight="1">
@@ -7374,7 +7374,7 @@
         <v>2030</v>
       </c>
       <c r="F57" s="54">
-        <v>0.84199999999999997</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>2030</v>
@@ -7517,7 +7517,7 @@
         <v>2035</v>
       </c>
       <c r="F65" s="60">
-        <v>1.0449999999999999</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>2035</v>
@@ -7539,7 +7539,7 @@
         <v>2040</v>
       </c>
       <c r="F66" s="54">
-        <v>1.0449999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:12" ht="18.75" customHeight="1">
@@ -7798,7 +7798,7 @@
         <v>2035</v>
       </c>
       <c r="F79" s="60">
-        <v>1.0840000000000001</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>2035</v>
@@ -7986,7 +7986,7 @@
         <v>2050</v>
       </c>
       <c r="F89" s="54">
-        <v>0</v>
+        <v>1.712</v>
       </c>
       <c r="I89">
         <v>2050</v>
@@ -8070,6 +8070,9 @@
         <v>2035</v>
       </c>
       <c r="F93" s="60">
+        <v>0</v>
+      </c>
+      <c r="J93">
         <v>0</v>
       </c>
     </row>
@@ -8163,7 +8166,7 @@
         <v>2030</v>
       </c>
       <c r="F99" s="54">
-        <v>0</v>
+        <v>1.325</v>
       </c>
       <c r="I99">
         <v>2030</v>
@@ -8295,7 +8298,7 @@
         <v>2030</v>
       </c>
       <c r="F106" s="54">
-        <v>0.82499999999999996</v>
+        <v>0</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -8313,7 +8316,7 @@
         <v>2035</v>
       </c>
       <c r="F107" s="60">
-        <v>0.82499999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:12" ht="18.75" customHeight="1">
@@ -8413,7 +8416,7 @@
         <v>2030</v>
       </c>
       <c r="F113" s="54">
-        <v>0.20599999999999999</v>
+        <v>0</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -8604,7 +8607,7 @@
         <v>2045</v>
       </c>
       <c r="F123" s="60">
-        <v>0.83699999999999997</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>2045</v>
@@ -9102,7 +9105,7 @@
         <v>2030</v>
       </c>
       <c r="F155" s="54">
-        <v>0.42799999999999999</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>2030</v>
@@ -9124,7 +9127,7 @@
         <v>2035</v>
       </c>
       <c r="F156" s="60">
-        <v>0.42799999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="2:12" ht="18.75" customHeight="1">
@@ -9140,7 +9143,7 @@
         <v>2040</v>
       </c>
       <c r="F157" s="54">
-        <v>0.42799999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="2:12" ht="18.75" customHeight="1">
@@ -9223,7 +9226,7 @@
         <v>2030</v>
       </c>
       <c r="F162" s="54">
-        <v>0.628</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="I162">
         <v>2030</v>
@@ -9352,7 +9355,7 @@
         <v>2030</v>
       </c>
       <c r="F169" s="54">
-        <v>0.28100000000000003</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>2030</v>
@@ -9373,7 +9376,7 @@
         <v>2035</v>
       </c>
       <c r="F170" s="60">
-        <v>0.28100000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="2:12" ht="18.75" customHeight="1">
@@ -9388,7 +9391,7 @@
         <v>2040</v>
       </c>
       <c r="F171" s="54">
-        <v>0.28100000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="2:12" ht="18.75" customHeight="1">
@@ -9517,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="I178">
-        <v>240</v>
+        <v>2040</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -9841,7 +9844,7 @@
         <v>2040</v>
       </c>
       <c r="F199" s="54">
-        <v>0</v>
+        <v>0.19739999999999999</v>
       </c>
       <c r="I199">
         <v>2040</v>
@@ -10080,7 +10083,7 @@
         <v>2030</v>
       </c>
       <c r="F211" s="54">
-        <v>4.2999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="I211">
         <v>2030</v>
@@ -10102,7 +10105,7 @@
         <v>2035</v>
       </c>
       <c r="F212" s="60">
-        <v>4.2999999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="2:12" ht="18.75" customHeight="1">
@@ -11738,6 +11741,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
@@ -11746,15 +11758,6 @@
     <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11777,6 +11780,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11785,12 +11796,4 @@
     <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_PP_STOCK_BEZP.xlsx
+++ b/SuppXLS/Scen_PP_STOCK_BEZP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E863B24-0DAB-4D8C-8575-29E716C61C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B5CB49-2015-46C0-84CF-1A9AD2568A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1284" yWindow="252" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="133">
   <si>
     <t>LimType</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>Stalowa Wola</t>
+  </si>
+  <si>
+    <t>Wszystkie moje - nie zmieniac chybaze konieczna</t>
   </si>
 </sst>
 </file>
@@ -3411,7 +3414,7 @@
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="101" fillId="41" borderId="18" xfId="800" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3571,6 +3574,7 @@
     <xf numFmtId="0" fontId="104" fillId="44" borderId="31" xfId="1263" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1267">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6331,8 +6335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB21E4C-71AD-44AD-8298-761DB002D879}">
   <dimension ref="B2:N223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="H212" sqref="H212"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6527,6 +6531,9 @@
       </c>
       <c r="J11" s="67" t="s">
         <v>104</v>
+      </c>
+      <c r="L11" s="77" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="18.75" customHeight="1">
@@ -11498,6 +11505,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -11740,7 +11758,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -11749,18 +11767,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F093830-87A7-44EA-9C61-B6AF237A7206}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11779,21 +11797,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_PP_STOCK_BEZP.xlsx
+++ b/SuppXLS/Scen_PP_STOCK_BEZP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B5CB49-2015-46C0-84CF-1A9AD2568A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75011473-C73F-4EFB-8EBE-26543991BDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3547,6 +3547,7 @@
     <xf numFmtId="0" fontId="101" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="104" fillId="44" borderId="0" xfId="1263" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3574,7 +3575,6 @@
     <xf numFmtId="0" fontId="104" fillId="44" borderId="31" xfId="1263" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1267">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5437,9 +5437,9 @@
       <c r="A6" s="14"/>
       <c r="B6" s="19"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
       <c r="J6" s="25"/>
       <c r="K6" s="23"/>
       <c r="L6" s="14"/>
@@ -5460,9 +5460,9 @@
       <c r="A8" s="14"/>
       <c r="B8" s="19"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
       <c r="J8" s="25"/>
       <c r="K8" s="23"/>
       <c r="L8" s="14"/>
@@ -5511,15 +5511,15 @@
       <c r="A14" s="14"/>
       <c r="B14" s="19"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="71" t="s">
+      <c r="E14" s="69"/>
+      <c r="F14" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
       <c r="J14" s="25"/>
       <c r="K14" s="23"/>
       <c r="L14" s="14"/>
@@ -5530,9 +5530,9 @@
       <c r="C15" s="24"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
       <c r="J15" s="25"/>
       <c r="K15" s="23"/>
       <c r="L15" s="14"/>
@@ -5557,16 +5557,16 @@
       <c r="A18" s="14"/>
       <c r="B18" s="19"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="72" t="s">
+      <c r="E18" s="69"/>
+      <c r="F18" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="25"/>
       <c r="K18" s="23"/>
       <c r="L18" s="14"/>
@@ -5577,10 +5577,10 @@
       <c r="C19" s="24"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
       <c r="J19" s="25"/>
       <c r="K19" s="23"/>
       <c r="L19" s="14"/>
@@ -5591,10 +5591,10 @@
       <c r="C20" s="24"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
       <c r="J20" s="25"/>
       <c r="K20" s="23"/>
       <c r="L20" s="14"/>
@@ -5614,10 +5614,10 @@
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="68"/>
+      <c r="E22" s="69"/>
       <c r="F22" s="31">
         <v>45078</v>
       </c>
@@ -5695,10 +5695,10 @@
       <c r="A28" s="14"/>
       <c r="B28" s="19"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="68"/>
+      <c r="E28" s="69"/>
       <c r="F28" s="15" t="s">
         <v>88</v>
       </c>
@@ -5737,10 +5737,10 @@
       <c r="A32" s="14"/>
       <c r="B32" s="19"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="68"/>
+      <c r="E32" s="69"/>
       <c r="F32" s="15" t="s">
         <v>88</v>
       </c>
@@ -5911,11 +5911,11 @@
       <c r="A4" s="14"/>
       <c r="B4" s="19"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
       <c r="G4" s="25"/>
       <c r="H4" s="23"/>
       <c r="I4" s="14"/>
@@ -5935,11 +5935,11 @@
       <c r="A6" s="14"/>
       <c r="B6" s="19"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
       <c r="G6" s="25"/>
       <c r="H6" s="23"/>
       <c r="I6" s="14"/>
@@ -6335,8 +6335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB21E4C-71AD-44AD-8298-761DB002D879}">
   <dimension ref="B2:N223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6432,11 +6432,11 @@
         <v>3.9220000000000002</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I7:N7" si="0">SUMIF($E$7:$E$222,I$6,$F$7:$F$222)</f>
+        <f>SUMIF($E$7:$E$222,I$6,$F$7:$F$222)</f>
         <v>21.287799999999994</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I7:N7" si="0">SUMIF($E$7:$E$222,J$6,$F$7:$F$222)</f>
         <v>14.350799999999998</v>
       </c>
       <c r="K7">
@@ -6532,7 +6532,7 @@
       <c r="J11" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="L11" s="77" t="s">
+      <c r="L11" s="68" t="s">
         <v>132</v>
       </c>
     </row>
@@ -11505,17 +11505,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -11758,6 +11747,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11768,17 +11768,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F093830-87A7-44EA-9C61-B6AF237A7206}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11797,6 +11786,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
